--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,55 +41,55 @@
     <t>Role</t>
   </si>
   <si>
-    <t>bAUep275</t>
-  </si>
-  <si>
-    <t>dfqyfsf19</t>
-  </si>
-  <si>
-    <t>wCbR92!%</t>
+    <t>vCmwh683</t>
+  </si>
+  <si>
+    <t>itdccrx94</t>
+  </si>
+  <si>
+    <t>BaY3$6&amp;t</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>NOkBSCFB</t>
-  </si>
-  <si>
-    <t>NhGG</t>
+    <t>RnxoWuxJ</t>
+  </si>
+  <si>
+    <t>dSKD</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>lIBwx541</t>
-  </si>
-  <si>
-    <t>kpvdwjl80</t>
-  </si>
-  <si>
-    <t>j!87#AFm</t>
-  </si>
-  <si>
-    <t>gQJAUwQE</t>
-  </si>
-  <si>
-    <t>acwp</t>
-  </si>
-  <si>
-    <t>dVGiz463</t>
-  </si>
-  <si>
-    <t>einfdpn36</t>
-  </si>
-  <si>
-    <t>Z4ryN$7%</t>
-  </si>
-  <si>
-    <t>RAdaGpBc</t>
-  </si>
-  <si>
-    <t>JQzP</t>
+    <t>zkFjv156</t>
+  </si>
+  <si>
+    <t>rhqqhmo10</t>
+  </si>
+  <si>
+    <t>G&amp;Ps4!u9</t>
+  </si>
+  <si>
+    <t>ArKJlAuf</t>
+  </si>
+  <si>
+    <t>ymuy</t>
+  </si>
+  <si>
+    <t>yHmgA454</t>
+  </si>
+  <si>
+    <t>vpyvkcc63</t>
+  </si>
+  <si>
+    <t>qr&amp;4$WM3</t>
+  </si>
+  <si>
+    <t>xrUDENCY</t>
+  </si>
+  <si>
+    <t>iLMK</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23091337</v>
+        <v>23091510</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -522,7 +522,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>23091336</v>
+        <v>23091509</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -548,7 +548,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>23091335</v>
+        <v>23091508</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,55 +41,55 @@
     <t>Role</t>
   </si>
   <si>
-    <t>vCmwh683</t>
-  </si>
-  <si>
-    <t>itdccrx94</t>
-  </si>
-  <si>
-    <t>BaY3$6&amp;t</t>
+    <t>bAUep275</t>
+  </si>
+  <si>
+    <t>dfqyfsf19</t>
+  </si>
+  <si>
+    <t>wCbR92!%</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>RnxoWuxJ</t>
-  </si>
-  <si>
-    <t>dSKD</t>
+    <t>NOkBSCFB</t>
+  </si>
+  <si>
+    <t>NhGG</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>zkFjv156</t>
-  </si>
-  <si>
-    <t>rhqqhmo10</t>
-  </si>
-  <si>
-    <t>G&amp;Ps4!u9</t>
-  </si>
-  <si>
-    <t>ArKJlAuf</t>
-  </si>
-  <si>
-    <t>ymuy</t>
-  </si>
-  <si>
-    <t>yHmgA454</t>
-  </si>
-  <si>
-    <t>vpyvkcc63</t>
-  </si>
-  <si>
-    <t>qr&amp;4$WM3</t>
-  </si>
-  <si>
-    <t>xrUDENCY</t>
-  </si>
-  <si>
-    <t>iLMK</t>
+    <t>lIBwx541</t>
+  </si>
+  <si>
+    <t>kpvdwjl80</t>
+  </si>
+  <si>
+    <t>j!87#AFm</t>
+  </si>
+  <si>
+    <t>gQJAUwQE</t>
+  </si>
+  <si>
+    <t>acwp</t>
+  </si>
+  <si>
+    <t>dVGiz463</t>
+  </si>
+  <si>
+    <t>einfdpn36</t>
+  </si>
+  <si>
+    <t>Z4ryN$7%</t>
+  </si>
+  <si>
+    <t>RAdaGpBc</t>
+  </si>
+  <si>
+    <t>JQzP</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23091510</v>
+        <v>23091337</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -522,7 +522,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>23091509</v>
+        <v>23091336</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -548,7 +548,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>23091508</v>
+        <v>23091335</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,55 +41,55 @@
     <t>Role</t>
   </si>
   <si>
-    <t>bAUep275</t>
-  </si>
-  <si>
-    <t>dfqyfsf19</t>
-  </si>
-  <si>
-    <t>wCbR92!%</t>
+    <t>QmnXJ145</t>
+  </si>
+  <si>
+    <t>bpdtaea74</t>
+  </si>
+  <si>
+    <t>TN%9ea3$</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>NOkBSCFB</t>
-  </si>
-  <si>
-    <t>NhGG</t>
+    <t>pNwaVZOa</t>
+  </si>
+  <si>
+    <t>GXxQ</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>lIBwx541</t>
-  </si>
-  <si>
-    <t>kpvdwjl80</t>
-  </si>
-  <si>
-    <t>j!87#AFm</t>
-  </si>
-  <si>
-    <t>gQJAUwQE</t>
-  </si>
-  <si>
-    <t>acwp</t>
-  </si>
-  <si>
-    <t>dVGiz463</t>
-  </si>
-  <si>
-    <t>einfdpn36</t>
-  </si>
-  <si>
-    <t>Z4ryN$7%</t>
-  </si>
-  <si>
-    <t>RAdaGpBc</t>
-  </si>
-  <si>
-    <t>JQzP</t>
+    <t>ufPJp360</t>
+  </si>
+  <si>
+    <t>vmgdxpn13</t>
+  </si>
+  <si>
+    <t>M#4%baD6</t>
+  </si>
+  <si>
+    <t>SrNkGWNG</t>
+  </si>
+  <si>
+    <t>xYiC</t>
+  </si>
+  <si>
+    <t>IcGmQ244</t>
+  </si>
+  <si>
+    <t>soykuih15</t>
+  </si>
+  <si>
+    <t>jT#Kk%95</t>
+  </si>
+  <si>
+    <t>idxIwDkM</t>
+  </si>
+  <si>
+    <t>QXOt</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23091337</v>
+        <v>23092945</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -522,7 +522,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>23091336</v>
+        <v>23092944</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -548,7 +548,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>23091335</v>
+        <v>23092943</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,55 +41,310 @@
     <t>Role</t>
   </si>
   <si>
-    <t>bAUep275</t>
-  </si>
-  <si>
-    <t>dfqyfsf19</t>
-  </si>
-  <si>
-    <t>wCbR92!%</t>
+    <t>ylfwr412</t>
+  </si>
+  <si>
+    <t>kttdlpr21</t>
+  </si>
+  <si>
+    <t>J&amp;96fvB#</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>NOkBSCFB</t>
-  </si>
-  <si>
-    <t>NhGG</t>
+    <t>uPAqhbIC</t>
+  </si>
+  <si>
+    <t>uxUH</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>lIBwx541</t>
-  </si>
-  <si>
-    <t>kpvdwjl80</t>
-  </si>
-  <si>
-    <t>j!87#AFm</t>
-  </si>
-  <si>
-    <t>gQJAUwQE</t>
-  </si>
-  <si>
-    <t>acwp</t>
-  </si>
-  <si>
-    <t>dVGiz463</t>
-  </si>
-  <si>
-    <t>einfdpn36</t>
-  </si>
-  <si>
-    <t>Z4ryN$7%</t>
-  </si>
-  <si>
-    <t>RAdaGpBc</t>
-  </si>
-  <si>
-    <t>JQzP</t>
+    <t>rxXDH184</t>
+  </si>
+  <si>
+    <t>ggwmhwh88</t>
+  </si>
+  <si>
+    <t>pJ8%&amp;m9H</t>
+  </si>
+  <si>
+    <t>XHhdtVGy</t>
+  </si>
+  <si>
+    <t>ZsbH</t>
+  </si>
+  <si>
+    <t>nBCNX732</t>
+  </si>
+  <si>
+    <t>qbomgrb77</t>
+  </si>
+  <si>
+    <t>Z&amp;M4$bs9</t>
+  </si>
+  <si>
+    <t>BoXPmoDO</t>
+  </si>
+  <si>
+    <t>cxdj</t>
+  </si>
+  <si>
+    <t>xiMpc542</t>
+  </si>
+  <si>
+    <t>jofsdqr38</t>
+  </si>
+  <si>
+    <t>ckN%5&amp;9C</t>
+  </si>
+  <si>
+    <t>dHVDnsns</t>
+  </si>
+  <si>
+    <t>bKoP</t>
+  </si>
+  <si>
+    <t>uQXiE947</t>
+  </si>
+  <si>
+    <t>xodopnk90</t>
+  </si>
+  <si>
+    <t>D9q2$v&amp;M</t>
+  </si>
+  <si>
+    <t>fZvvLHrQ</t>
+  </si>
+  <si>
+    <t>Sejq</t>
+  </si>
+  <si>
+    <t>mxFXN590</t>
+  </si>
+  <si>
+    <t>eafdpyv94</t>
+  </si>
+  <si>
+    <t>dHX#$38e</t>
+  </si>
+  <si>
+    <t>NqZdPWOe</t>
+  </si>
+  <si>
+    <t>zRpr</t>
+  </si>
+  <si>
+    <t>XzaWi122</t>
+  </si>
+  <si>
+    <t>yuganpr93</t>
+  </si>
+  <si>
+    <t>C$6gq2T&amp;</t>
+  </si>
+  <si>
+    <t>BPCqKweg</t>
+  </si>
+  <si>
+    <t>Cxnw</t>
+  </si>
+  <si>
+    <t>vwWbh359</t>
+  </si>
+  <si>
+    <t>axkjckh66</t>
+  </si>
+  <si>
+    <t>M5pd!6N&amp;</t>
+  </si>
+  <si>
+    <t>VXOZMUoK</t>
+  </si>
+  <si>
+    <t>tlCh</t>
+  </si>
+  <si>
+    <t>efRMM313</t>
+  </si>
+  <si>
+    <t>pjismyp44</t>
+  </si>
+  <si>
+    <t>R9qHg#$7</t>
+  </si>
+  <si>
+    <t>OAvGNQeN</t>
+  </si>
+  <si>
+    <t>pFHT</t>
+  </si>
+  <si>
+    <t>jcBxV459</t>
+  </si>
+  <si>
+    <t>tglphif51</t>
+  </si>
+  <si>
+    <t>wA7&amp;K!v9</t>
+  </si>
+  <si>
+    <t>ELBNShzL</t>
+  </si>
+  <si>
+    <t>UdtV</t>
+  </si>
+  <si>
+    <t>aOTar761</t>
+  </si>
+  <si>
+    <t>ulmeths55</t>
+  </si>
+  <si>
+    <t>q7S5Fw%&amp;</t>
+  </si>
+  <si>
+    <t>UzFlgnkp</t>
+  </si>
+  <si>
+    <t>PyVQ</t>
+  </si>
+  <si>
+    <t>RhSmg925</t>
+  </si>
+  <si>
+    <t>fwywcgr15</t>
+  </si>
+  <si>
+    <t>X#83m%Mn</t>
+  </si>
+  <si>
+    <t>tsHYJPmT</t>
+  </si>
+  <si>
+    <t>rKrp</t>
+  </si>
+  <si>
+    <t>xshhe859</t>
+  </si>
+  <si>
+    <t>houkkvu65</t>
+  </si>
+  <si>
+    <t>j%R5x#G2</t>
+  </si>
+  <si>
+    <t>ztlMeAft</t>
+  </si>
+  <si>
+    <t>LWFp</t>
+  </si>
+  <si>
+    <t>GoXPa829</t>
+  </si>
+  <si>
+    <t>qskvxdd93</t>
+  </si>
+  <si>
+    <t>sD3&amp;xA8#</t>
+  </si>
+  <si>
+    <t>psrMEZoT</t>
+  </si>
+  <si>
+    <t>GduH</t>
+  </si>
+  <si>
+    <t>LxIxr721</t>
+  </si>
+  <si>
+    <t>iruwmfw53</t>
+  </si>
+  <si>
+    <t>M9%v&amp;2Jx</t>
+  </si>
+  <si>
+    <t>ubaSLGJx</t>
+  </si>
+  <si>
+    <t>UMMp</t>
+  </si>
+  <si>
+    <t>HrNTA739</t>
+  </si>
+  <si>
+    <t>mzpjicw92</t>
+  </si>
+  <si>
+    <t>H8&amp;u7Wk!</t>
+  </si>
+  <si>
+    <t>vLzqJTUl</t>
+  </si>
+  <si>
+    <t>rIuj</t>
+  </si>
+  <si>
+    <t>BCtiV561</t>
+  </si>
+  <si>
+    <t>aiulbpv73</t>
+  </si>
+  <si>
+    <t>n!R5bP8%</t>
+  </si>
+  <si>
+    <t>hrTOknrM</t>
+  </si>
+  <si>
+    <t>dbVt</t>
+  </si>
+  <si>
+    <t>tZuZg783</t>
+  </si>
+  <si>
+    <t>cxqthsq32</t>
+  </si>
+  <si>
+    <t>mQ2%#7wJ</t>
+  </si>
+  <si>
+    <t>ogpkYhQf</t>
+  </si>
+  <si>
+    <t>jcEO</t>
+  </si>
+  <si>
+    <t>PmAyc374</t>
+  </si>
+  <si>
+    <t>lmwflqd97</t>
+  </si>
+  <si>
+    <t>h8!uQ%5S</t>
+  </si>
+  <si>
+    <t>pFfBdGvM</t>
+  </si>
+  <si>
+    <t>Jzla</t>
+  </si>
+  <si>
+    <t>NgwZh541</t>
+  </si>
+  <si>
+    <t>vgzjdqj70</t>
+  </si>
+  <si>
+    <t>x%3S#8tJ</t>
+  </si>
+  <si>
+    <t>qMGqacSF</t>
+  </si>
+  <si>
+    <t>MrwI</t>
   </si>
 </sst>
 </file>
@@ -457,10 +712,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="A1" sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23091337</v>
+        <v>230928126</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -522,7 +777,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>23091336</v>
+        <v>230928125</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -548,7 +803,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>23091335</v>
+        <v>230928124</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -566,6 +821,448 @@
         <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>230928123</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>230928122</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>230928121</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <v>230928120</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>230928119</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>230928118</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>230928117</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>230928116</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>230928115</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2">
+        <v>230928114</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>230928113</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2">
+        <v>230928112</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2">
+        <v>230928111</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2">
+        <v>230928110</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="2">
+        <v>230928109</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2">
+        <v>230928108</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="2">
+        <v>230928107</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,55 +41,310 @@
     <t>Role</t>
   </si>
   <si>
-    <t>QmnXJ145</t>
-  </si>
-  <si>
-    <t>bpdtaea74</t>
-  </si>
-  <si>
-    <t>TN%9ea3$</t>
+    <t>rLwXq172</t>
+  </si>
+  <si>
+    <t>rbzbtxh84</t>
+  </si>
+  <si>
+    <t>V%7!fd3S</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>pNwaVZOa</t>
-  </si>
-  <si>
-    <t>GXxQ</t>
+    <t>XtqHeiZz</t>
+  </si>
+  <si>
+    <t>OMxH</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>ufPJp360</t>
-  </si>
-  <si>
-    <t>vmgdxpn13</t>
-  </si>
-  <si>
-    <t>M#4%baD6</t>
-  </si>
-  <si>
-    <t>SrNkGWNG</t>
-  </si>
-  <si>
-    <t>xYiC</t>
-  </si>
-  <si>
-    <t>IcGmQ244</t>
-  </si>
-  <si>
-    <t>soykuih15</t>
-  </si>
-  <si>
-    <t>jT#Kk%95</t>
-  </si>
-  <si>
-    <t>idxIwDkM</t>
-  </si>
-  <si>
-    <t>QXOt</t>
+    <t>uItHV629</t>
+  </si>
+  <si>
+    <t>dylzpyy61</t>
+  </si>
+  <si>
+    <t>p8&amp;dP3!A</t>
+  </si>
+  <si>
+    <t>tGLyDNsN</t>
+  </si>
+  <si>
+    <t>XhYR</t>
+  </si>
+  <si>
+    <t>dhhbP134</t>
+  </si>
+  <si>
+    <t>yukvoct74</t>
+  </si>
+  <si>
+    <t>kB74%tK&amp;</t>
+  </si>
+  <si>
+    <t>JPxOlBRN</t>
+  </si>
+  <si>
+    <t>FoNz</t>
+  </si>
+  <si>
+    <t>SMwTj689</t>
+  </si>
+  <si>
+    <t>mnwippw59</t>
+  </si>
+  <si>
+    <t>y8s!3&amp;ZT</t>
+  </si>
+  <si>
+    <t>jBzOzxjf</t>
+  </si>
+  <si>
+    <t>ZYWo</t>
+  </si>
+  <si>
+    <t>rTMEz990</t>
+  </si>
+  <si>
+    <t>bozumpv36</t>
+  </si>
+  <si>
+    <t>H%S3my6&amp;</t>
+  </si>
+  <si>
+    <t>eCYNAYYB</t>
+  </si>
+  <si>
+    <t>cmMV</t>
+  </si>
+  <si>
+    <t>iKAHf158</t>
+  </si>
+  <si>
+    <t>dfhekgl13</t>
+  </si>
+  <si>
+    <t>y4%B#M8z</t>
+  </si>
+  <si>
+    <t>mHYQfpvk</t>
+  </si>
+  <si>
+    <t>juGs</t>
+  </si>
+  <si>
+    <t>hKuWY973</t>
+  </si>
+  <si>
+    <t>igecjzd81</t>
+  </si>
+  <si>
+    <t>p%c73&amp;EC</t>
+  </si>
+  <si>
+    <t>uVVnzvei</t>
+  </si>
+  <si>
+    <t>ZnkK</t>
+  </si>
+  <si>
+    <t>lLzJC347</t>
+  </si>
+  <si>
+    <t>exqiwfn76</t>
+  </si>
+  <si>
+    <t>A%9ah7!P</t>
+  </si>
+  <si>
+    <t>mLAFxsRG</t>
+  </si>
+  <si>
+    <t>MWbL</t>
+  </si>
+  <si>
+    <t>bySTl473</t>
+  </si>
+  <si>
+    <t>rlpeeqw29</t>
+  </si>
+  <si>
+    <t>y$7Hz#D2</t>
+  </si>
+  <si>
+    <t>TOWIcyTe</t>
+  </si>
+  <si>
+    <t>gCTE</t>
+  </si>
+  <si>
+    <t>EfZzG955</t>
+  </si>
+  <si>
+    <t>tyeafij59</t>
+  </si>
+  <si>
+    <t>h$7%9GPx</t>
+  </si>
+  <si>
+    <t>wqwzqKLu</t>
+  </si>
+  <si>
+    <t>sveq</t>
+  </si>
+  <si>
+    <t>PziNd813</t>
+  </si>
+  <si>
+    <t>rtisuce29</t>
+  </si>
+  <si>
+    <t>nG5%r3!H</t>
+  </si>
+  <si>
+    <t>lNYbcaqx</t>
+  </si>
+  <si>
+    <t>nMrU</t>
+  </si>
+  <si>
+    <t>IBjiG750</t>
+  </si>
+  <si>
+    <t>hzwkvli58</t>
+  </si>
+  <si>
+    <t>aX#53Hy!</t>
+  </si>
+  <si>
+    <t>NbezolmK</t>
+  </si>
+  <si>
+    <t>MBZe</t>
+  </si>
+  <si>
+    <t>JkjCg580</t>
+  </si>
+  <si>
+    <t>siwuaru65</t>
+  </si>
+  <si>
+    <t>B8n%k#X3</t>
+  </si>
+  <si>
+    <t>ClPRRXgY</t>
+  </si>
+  <si>
+    <t>Vqes</t>
+  </si>
+  <si>
+    <t>qJyKP892</t>
+  </si>
+  <si>
+    <t>lvxgrfp34</t>
+  </si>
+  <si>
+    <t>qGf%H75$</t>
+  </si>
+  <si>
+    <t>oCCyFlnE</t>
+  </si>
+  <si>
+    <t>hgNK</t>
+  </si>
+  <si>
+    <t>gycGJ588</t>
+  </si>
+  <si>
+    <t>xkwuawp38</t>
+  </si>
+  <si>
+    <t>Y7K4d$!k</t>
+  </si>
+  <si>
+    <t>DfHoJmam</t>
+  </si>
+  <si>
+    <t>AJLh</t>
+  </si>
+  <si>
+    <t>PuvnT198</t>
+  </si>
+  <si>
+    <t>qqcwphd91</t>
+  </si>
+  <si>
+    <t>QS&amp;2n5#r</t>
+  </si>
+  <si>
+    <t>mlJibGra</t>
+  </si>
+  <si>
+    <t>urCG</t>
+  </si>
+  <si>
+    <t>OBXPG248</t>
+  </si>
+  <si>
+    <t>axdlwfz79</t>
+  </si>
+  <si>
+    <t>J#qf63Y%</t>
+  </si>
+  <si>
+    <t>tROmDHhb</t>
+  </si>
+  <si>
+    <t>eLtv</t>
+  </si>
+  <si>
+    <t>deUVV727</t>
+  </si>
+  <si>
+    <t>isegsyi16</t>
+  </si>
+  <si>
+    <t>zU4!uK%5</t>
+  </si>
+  <si>
+    <t>HkcYpRvj</t>
+  </si>
+  <si>
+    <t>FVxW</t>
+  </si>
+  <si>
+    <t>RwwQx159</t>
+  </si>
+  <si>
+    <t>bfsgnqr30</t>
+  </si>
+  <si>
+    <t>y2Ka$B&amp;6</t>
+  </si>
+  <si>
+    <t>dUyTvMwc</t>
+  </si>
+  <si>
+    <t>iyFo</t>
+  </si>
+  <si>
+    <t>NwXft597</t>
+  </si>
+  <si>
+    <t>udxscmf66</t>
+  </si>
+  <si>
+    <t>m%g9EN$8</t>
+  </si>
+  <si>
+    <t>WnLLlRRS</t>
+  </si>
+  <si>
+    <t>EpSx</t>
   </si>
 </sst>
 </file>
@@ -457,10 +712,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="A1" sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23092945</v>
+        <v>231004222</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -522,7 +777,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>23092944</v>
+        <v>231004221</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -548,7 +803,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>23092943</v>
+        <v>231004220</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -566,6 +821,448 @@
         <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>231004219</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>231004218</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>231004217</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <v>231004216</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>231004215</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>231004214</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>231004213</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>231004212</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>231004211</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2">
+        <v>231004210</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>231004209</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2">
+        <v>231004208</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2">
+        <v>231004207</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2">
+        <v>231004206</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="2">
+        <v>231004205</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2">
+        <v>231004204</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="2">
+        <v>231004203</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,55 +41,25 @@
     <t>Role</t>
   </si>
   <si>
-    <t>QmnXJ145</t>
-  </si>
-  <si>
-    <t>bpdtaea74</t>
-  </si>
-  <si>
-    <t>TN%9ea3$</t>
+    <t>TXrGu601</t>
+  </si>
+  <si>
+    <t>alaehlb21</t>
+  </si>
+  <si>
+    <t>F35$xn#H</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>pNwaVZOa</t>
-  </si>
-  <si>
-    <t>GXxQ</t>
+    <t>RhsTwfaH</t>
+  </si>
+  <si>
+    <t>jVCP</t>
   </si>
   <si>
     <t>Candidate</t>
-  </si>
-  <si>
-    <t>ufPJp360</t>
-  </si>
-  <si>
-    <t>vmgdxpn13</t>
-  </si>
-  <si>
-    <t>M#4%baD6</t>
-  </si>
-  <si>
-    <t>SrNkGWNG</t>
-  </si>
-  <si>
-    <t>xYiC</t>
-  </si>
-  <si>
-    <t>IcGmQ244</t>
-  </si>
-  <si>
-    <t>soykuih15</t>
-  </si>
-  <si>
-    <t>jT#Kk%95</t>
-  </si>
-  <si>
-    <t>idxIwDkM</t>
-  </si>
-  <si>
-    <t>QXOt</t>
   </si>
 </sst>
 </file>
@@ -457,10 +427,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23092945</v>
+        <v>23100515</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -514,58 +484,6 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2">
-        <v>23092944</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>23092943</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,25 +41,310 @@
     <t>Role</t>
   </si>
   <si>
-    <t>TXrGu601</t>
-  </si>
-  <si>
-    <t>alaehlb21</t>
-  </si>
-  <si>
-    <t>F35$xn#H</t>
+    <t>rLwXq172</t>
+  </si>
+  <si>
+    <t>rbzbtxh84</t>
+  </si>
+  <si>
+    <t>V%7!fd3S</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>RhsTwfaH</t>
-  </si>
-  <si>
-    <t>jVCP</t>
+    <t>XtqHeiZz</t>
+  </si>
+  <si>
+    <t>OMxH</t>
   </si>
   <si>
     <t>Candidate</t>
+  </si>
+  <si>
+    <t>uItHV629</t>
+  </si>
+  <si>
+    <t>dylzpyy61</t>
+  </si>
+  <si>
+    <t>p8&amp;dP3!A</t>
+  </si>
+  <si>
+    <t>tGLyDNsN</t>
+  </si>
+  <si>
+    <t>XhYR</t>
+  </si>
+  <si>
+    <t>dhhbP134</t>
+  </si>
+  <si>
+    <t>yukvoct74</t>
+  </si>
+  <si>
+    <t>kB74%tK&amp;</t>
+  </si>
+  <si>
+    <t>JPxOlBRN</t>
+  </si>
+  <si>
+    <t>FoNz</t>
+  </si>
+  <si>
+    <t>SMwTj689</t>
+  </si>
+  <si>
+    <t>mnwippw59</t>
+  </si>
+  <si>
+    <t>y8s!3&amp;ZT</t>
+  </si>
+  <si>
+    <t>jBzOzxjf</t>
+  </si>
+  <si>
+    <t>ZYWo</t>
+  </si>
+  <si>
+    <t>rTMEz990</t>
+  </si>
+  <si>
+    <t>bozumpv36</t>
+  </si>
+  <si>
+    <t>H%S3my6&amp;</t>
+  </si>
+  <si>
+    <t>eCYNAYYB</t>
+  </si>
+  <si>
+    <t>cmMV</t>
+  </si>
+  <si>
+    <t>iKAHf158</t>
+  </si>
+  <si>
+    <t>dfhekgl13</t>
+  </si>
+  <si>
+    <t>y4%B#M8z</t>
+  </si>
+  <si>
+    <t>mHYQfpvk</t>
+  </si>
+  <si>
+    <t>juGs</t>
+  </si>
+  <si>
+    <t>hKuWY973</t>
+  </si>
+  <si>
+    <t>igecjzd81</t>
+  </si>
+  <si>
+    <t>p%c73&amp;EC</t>
+  </si>
+  <si>
+    <t>uVVnzvei</t>
+  </si>
+  <si>
+    <t>ZnkK</t>
+  </si>
+  <si>
+    <t>lLzJC347</t>
+  </si>
+  <si>
+    <t>exqiwfn76</t>
+  </si>
+  <si>
+    <t>A%9ah7!P</t>
+  </si>
+  <si>
+    <t>mLAFxsRG</t>
+  </si>
+  <si>
+    <t>MWbL</t>
+  </si>
+  <si>
+    <t>bySTl473</t>
+  </si>
+  <si>
+    <t>rlpeeqw29</t>
+  </si>
+  <si>
+    <t>y$7Hz#D2</t>
+  </si>
+  <si>
+    <t>TOWIcyTe</t>
+  </si>
+  <si>
+    <t>gCTE</t>
+  </si>
+  <si>
+    <t>EfZzG955</t>
+  </si>
+  <si>
+    <t>tyeafij59</t>
+  </si>
+  <si>
+    <t>h$7%9GPx</t>
+  </si>
+  <si>
+    <t>wqwzqKLu</t>
+  </si>
+  <si>
+    <t>sveq</t>
+  </si>
+  <si>
+    <t>PziNd813</t>
+  </si>
+  <si>
+    <t>rtisuce29</t>
+  </si>
+  <si>
+    <t>nG5%r3!H</t>
+  </si>
+  <si>
+    <t>lNYbcaqx</t>
+  </si>
+  <si>
+    <t>nMrU</t>
+  </si>
+  <si>
+    <t>IBjiG750</t>
+  </si>
+  <si>
+    <t>hzwkvli58</t>
+  </si>
+  <si>
+    <t>aX#53Hy!</t>
+  </si>
+  <si>
+    <t>NbezolmK</t>
+  </si>
+  <si>
+    <t>MBZe</t>
+  </si>
+  <si>
+    <t>JkjCg580</t>
+  </si>
+  <si>
+    <t>siwuaru65</t>
+  </si>
+  <si>
+    <t>B8n%k#X3</t>
+  </si>
+  <si>
+    <t>ClPRRXgY</t>
+  </si>
+  <si>
+    <t>Vqes</t>
+  </si>
+  <si>
+    <t>qJyKP892</t>
+  </si>
+  <si>
+    <t>lvxgrfp34</t>
+  </si>
+  <si>
+    <t>qGf%H75$</t>
+  </si>
+  <si>
+    <t>oCCyFlnE</t>
+  </si>
+  <si>
+    <t>hgNK</t>
+  </si>
+  <si>
+    <t>gycGJ588</t>
+  </si>
+  <si>
+    <t>xkwuawp38</t>
+  </si>
+  <si>
+    <t>Y7K4d$!k</t>
+  </si>
+  <si>
+    <t>DfHoJmam</t>
+  </si>
+  <si>
+    <t>AJLh</t>
+  </si>
+  <si>
+    <t>PuvnT198</t>
+  </si>
+  <si>
+    <t>qqcwphd91</t>
+  </si>
+  <si>
+    <t>QS&amp;2n5#r</t>
+  </si>
+  <si>
+    <t>mlJibGra</t>
+  </si>
+  <si>
+    <t>urCG</t>
+  </si>
+  <si>
+    <t>OBXPG248</t>
+  </si>
+  <si>
+    <t>axdlwfz79</t>
+  </si>
+  <si>
+    <t>J#qf63Y%</t>
+  </si>
+  <si>
+    <t>tROmDHhb</t>
+  </si>
+  <si>
+    <t>eLtv</t>
+  </si>
+  <si>
+    <t>deUVV727</t>
+  </si>
+  <si>
+    <t>isegsyi16</t>
+  </si>
+  <si>
+    <t>zU4!uK%5</t>
+  </si>
+  <si>
+    <t>HkcYpRvj</t>
+  </si>
+  <si>
+    <t>FVxW</t>
+  </si>
+  <si>
+    <t>RwwQx159</t>
+  </si>
+  <si>
+    <t>bfsgnqr30</t>
+  </si>
+  <si>
+    <t>y2Ka$B&amp;6</t>
+  </si>
+  <si>
+    <t>dUyTvMwc</t>
+  </si>
+  <si>
+    <t>iyFo</t>
+  </si>
+  <si>
+    <t>NwXft597</t>
+  </si>
+  <si>
+    <t>udxscmf66</t>
+  </si>
+  <si>
+    <t>m%g9EN$8</t>
+  </si>
+  <si>
+    <t>WnLLlRRS</t>
+  </si>
+  <si>
+    <t>EpSx</t>
   </si>
 </sst>
 </file>
@@ -427,10 +712,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="A1" sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23100515</v>
+        <v>231004222</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -484,6 +769,500 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>231004221</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>231004220</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>231004219</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>231004218</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>231004217</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <v>231004216</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>231004215</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>231004214</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>231004213</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>231004212</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>231004211</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2">
+        <v>231004210</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>231004209</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2">
+        <v>231004208</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2">
+        <v>231004207</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2">
+        <v>231004206</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="2">
+        <v>231004205</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2">
+        <v>231004204</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="2">
+        <v>231004203</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,310 +41,460 @@
     <t>Role</t>
   </si>
   <si>
-    <t>rLwXq172</t>
-  </si>
-  <si>
-    <t>rbzbtxh84</t>
-  </si>
-  <si>
-    <t>V%7!fd3S</t>
+    <t>GodNi946</t>
+  </si>
+  <si>
+    <t>edudhll74</t>
+  </si>
+  <si>
+    <t>wR#&amp;24Mt</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>XtqHeiZz</t>
-  </si>
-  <si>
-    <t>OMxH</t>
+    <t>AXxoorqV</t>
+  </si>
+  <si>
+    <t>PpVC</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>uItHV629</t>
-  </si>
-  <si>
-    <t>dylzpyy61</t>
-  </si>
-  <si>
-    <t>p8&amp;dP3!A</t>
-  </si>
-  <si>
-    <t>tGLyDNsN</t>
-  </si>
-  <si>
-    <t>XhYR</t>
-  </si>
-  <si>
-    <t>dhhbP134</t>
-  </si>
-  <si>
-    <t>yukvoct74</t>
-  </si>
-  <si>
-    <t>kB74%tK&amp;</t>
-  </si>
-  <si>
-    <t>JPxOlBRN</t>
-  </si>
-  <si>
-    <t>FoNz</t>
-  </si>
-  <si>
-    <t>SMwTj689</t>
-  </si>
-  <si>
-    <t>mnwippw59</t>
-  </si>
-  <si>
-    <t>y8s!3&amp;ZT</t>
-  </si>
-  <si>
-    <t>jBzOzxjf</t>
-  </si>
-  <si>
-    <t>ZYWo</t>
-  </si>
-  <si>
-    <t>rTMEz990</t>
-  </si>
-  <si>
-    <t>bozumpv36</t>
-  </si>
-  <si>
-    <t>H%S3my6&amp;</t>
-  </si>
-  <si>
-    <t>eCYNAYYB</t>
-  </si>
-  <si>
-    <t>cmMV</t>
-  </si>
-  <si>
-    <t>iKAHf158</t>
-  </si>
-  <si>
-    <t>dfhekgl13</t>
-  </si>
-  <si>
-    <t>y4%B#M8z</t>
-  </si>
-  <si>
-    <t>mHYQfpvk</t>
-  </si>
-  <si>
-    <t>juGs</t>
-  </si>
-  <si>
-    <t>hKuWY973</t>
-  </si>
-  <si>
-    <t>igecjzd81</t>
-  </si>
-  <si>
-    <t>p%c73&amp;EC</t>
-  </si>
-  <si>
-    <t>uVVnzvei</t>
-  </si>
-  <si>
-    <t>ZnkK</t>
-  </si>
-  <si>
-    <t>lLzJC347</t>
-  </si>
-  <si>
-    <t>exqiwfn76</t>
-  </si>
-  <si>
-    <t>A%9ah7!P</t>
-  </si>
-  <si>
-    <t>mLAFxsRG</t>
-  </si>
-  <si>
-    <t>MWbL</t>
-  </si>
-  <si>
-    <t>bySTl473</t>
-  </si>
-  <si>
-    <t>rlpeeqw29</t>
-  </si>
-  <si>
-    <t>y$7Hz#D2</t>
-  </si>
-  <si>
-    <t>TOWIcyTe</t>
-  </si>
-  <si>
-    <t>gCTE</t>
-  </si>
-  <si>
-    <t>EfZzG955</t>
-  </si>
-  <si>
-    <t>tyeafij59</t>
-  </si>
-  <si>
-    <t>h$7%9GPx</t>
-  </si>
-  <si>
-    <t>wqwzqKLu</t>
-  </si>
-  <si>
-    <t>sveq</t>
-  </si>
-  <si>
-    <t>PziNd813</t>
-  </si>
-  <si>
-    <t>rtisuce29</t>
-  </si>
-  <si>
-    <t>nG5%r3!H</t>
-  </si>
-  <si>
-    <t>lNYbcaqx</t>
-  </si>
-  <si>
-    <t>nMrU</t>
-  </si>
-  <si>
-    <t>IBjiG750</t>
-  </si>
-  <si>
-    <t>hzwkvli58</t>
-  </si>
-  <si>
-    <t>aX#53Hy!</t>
-  </si>
-  <si>
-    <t>NbezolmK</t>
-  </si>
-  <si>
-    <t>MBZe</t>
-  </si>
-  <si>
-    <t>JkjCg580</t>
-  </si>
-  <si>
-    <t>siwuaru65</t>
-  </si>
-  <si>
-    <t>B8n%k#X3</t>
-  </si>
-  <si>
-    <t>ClPRRXgY</t>
-  </si>
-  <si>
-    <t>Vqes</t>
-  </si>
-  <si>
-    <t>qJyKP892</t>
-  </si>
-  <si>
-    <t>lvxgrfp34</t>
-  </si>
-  <si>
-    <t>qGf%H75$</t>
-  </si>
-  <si>
-    <t>oCCyFlnE</t>
-  </si>
-  <si>
-    <t>hgNK</t>
-  </si>
-  <si>
-    <t>gycGJ588</t>
-  </si>
-  <si>
-    <t>xkwuawp38</t>
-  </si>
-  <si>
-    <t>Y7K4d$!k</t>
-  </si>
-  <si>
-    <t>DfHoJmam</t>
-  </si>
-  <si>
-    <t>AJLh</t>
-  </si>
-  <si>
-    <t>PuvnT198</t>
-  </si>
-  <si>
-    <t>qqcwphd91</t>
-  </si>
-  <si>
-    <t>QS&amp;2n5#r</t>
-  </si>
-  <si>
-    <t>mlJibGra</t>
-  </si>
-  <si>
-    <t>urCG</t>
-  </si>
-  <si>
-    <t>OBXPG248</t>
-  </si>
-  <si>
-    <t>axdlwfz79</t>
-  </si>
-  <si>
-    <t>J#qf63Y%</t>
-  </si>
-  <si>
-    <t>tROmDHhb</t>
-  </si>
-  <si>
-    <t>eLtv</t>
-  </si>
-  <si>
-    <t>deUVV727</t>
-  </si>
-  <si>
-    <t>isegsyi16</t>
-  </si>
-  <si>
-    <t>zU4!uK%5</t>
-  </si>
-  <si>
-    <t>HkcYpRvj</t>
-  </si>
-  <si>
-    <t>FVxW</t>
-  </si>
-  <si>
-    <t>RwwQx159</t>
-  </si>
-  <si>
-    <t>bfsgnqr30</t>
-  </si>
-  <si>
-    <t>y2Ka$B&amp;6</t>
-  </si>
-  <si>
-    <t>dUyTvMwc</t>
-  </si>
-  <si>
-    <t>iyFo</t>
-  </si>
-  <si>
-    <t>NwXft597</t>
-  </si>
-  <si>
-    <t>udxscmf66</t>
-  </si>
-  <si>
-    <t>m%g9EN$8</t>
-  </si>
-  <si>
-    <t>WnLLlRRS</t>
-  </si>
-  <si>
-    <t>EpSx</t>
+    <t>thEyO848</t>
+  </si>
+  <si>
+    <t>wbpazoh22</t>
+  </si>
+  <si>
+    <t>R8&amp;S%a5x</t>
+  </si>
+  <si>
+    <t>fhqYobuy</t>
+  </si>
+  <si>
+    <t>RGdO</t>
+  </si>
+  <si>
+    <t>QpOah112</t>
+  </si>
+  <si>
+    <t>bdugudh39</t>
+  </si>
+  <si>
+    <t>uv%#E8W6</t>
+  </si>
+  <si>
+    <t>pIuIUamb</t>
+  </si>
+  <si>
+    <t>QBhj</t>
+  </si>
+  <si>
+    <t>HfIcH687</t>
+  </si>
+  <si>
+    <t>lfzjkai28</t>
+  </si>
+  <si>
+    <t>KAe2#z&amp;7</t>
+  </si>
+  <si>
+    <t>fdKjxiel</t>
+  </si>
+  <si>
+    <t>KqTH</t>
+  </si>
+  <si>
+    <t>IEVBC836</t>
+  </si>
+  <si>
+    <t>eejfnbp52</t>
+  </si>
+  <si>
+    <t>h7RKt$3&amp;</t>
+  </si>
+  <si>
+    <t>RwSNVkmM</t>
+  </si>
+  <si>
+    <t>tSov</t>
+  </si>
+  <si>
+    <t>nRsqK147</t>
+  </si>
+  <si>
+    <t>gyexfbm12</t>
+  </si>
+  <si>
+    <t>y#27Xf&amp;R</t>
+  </si>
+  <si>
+    <t>XvOEtFaL</t>
+  </si>
+  <si>
+    <t>oFUj</t>
+  </si>
+  <si>
+    <t>yRdhJ607</t>
+  </si>
+  <si>
+    <t>rkrnrhh28</t>
+  </si>
+  <si>
+    <t>h8y4!YC#</t>
+  </si>
+  <si>
+    <t>QMlSYEYI</t>
+  </si>
+  <si>
+    <t>DZgC</t>
+  </si>
+  <si>
+    <t>eYYTy247</t>
+  </si>
+  <si>
+    <t>clupctl95</t>
+  </si>
+  <si>
+    <t>s4$Rt#M6</t>
+  </si>
+  <si>
+    <t>BSxxazUj</t>
+  </si>
+  <si>
+    <t>lRsu</t>
+  </si>
+  <si>
+    <t>tJSml699</t>
+  </si>
+  <si>
+    <t>bhdcfxy44</t>
+  </si>
+  <si>
+    <t>mbP4#6M!</t>
+  </si>
+  <si>
+    <t>uJWRHtGW</t>
+  </si>
+  <si>
+    <t>XkIu</t>
+  </si>
+  <si>
+    <t>OPhOf912</t>
+  </si>
+  <si>
+    <t>htafjub32</t>
+  </si>
+  <si>
+    <t>M&amp;9#Qhe6</t>
+  </si>
+  <si>
+    <t>JiVWGQvH</t>
+  </si>
+  <si>
+    <t>bUNc</t>
+  </si>
+  <si>
+    <t>okwrS978</t>
+  </si>
+  <si>
+    <t>yzzecge33</t>
+  </si>
+  <si>
+    <t>su6W3&amp;P#</t>
+  </si>
+  <si>
+    <t>FYldqSlp</t>
+  </si>
+  <si>
+    <t>kAEj</t>
+  </si>
+  <si>
+    <t>lIdDo266</t>
+  </si>
+  <si>
+    <t>iigqcuh98</t>
+  </si>
+  <si>
+    <t>A$u&amp;54jQ</t>
+  </si>
+  <si>
+    <t>BjwkziPg</t>
+  </si>
+  <si>
+    <t>bsAX</t>
+  </si>
+  <si>
+    <t>nyHfG874</t>
+  </si>
+  <si>
+    <t>tqjiint94</t>
+  </si>
+  <si>
+    <t>Q7$5c#En</t>
+  </si>
+  <si>
+    <t>nKqElGUJ</t>
+  </si>
+  <si>
+    <t>XVVL</t>
+  </si>
+  <si>
+    <t>jPVbf692</t>
+  </si>
+  <si>
+    <t>xeldktb87</t>
+  </si>
+  <si>
+    <t>W5va$4U!</t>
+  </si>
+  <si>
+    <t>WROCScog</t>
+  </si>
+  <si>
+    <t>YcGK</t>
+  </si>
+  <si>
+    <t>RuTDR158</t>
+  </si>
+  <si>
+    <t>wxuoshf83</t>
+  </si>
+  <si>
+    <t>c4V7!nX&amp;</t>
+  </si>
+  <si>
+    <t>gTUIlZAD</t>
+  </si>
+  <si>
+    <t>zlqc</t>
+  </si>
+  <si>
+    <t>eUtgs388</t>
+  </si>
+  <si>
+    <t>kahbipq69</t>
+  </si>
+  <si>
+    <t>f#q!M3Z7</t>
+  </si>
+  <si>
+    <t>TlkCSYfc</t>
+  </si>
+  <si>
+    <t>WMaL</t>
+  </si>
+  <si>
+    <t>jTWwL141</t>
+  </si>
+  <si>
+    <t>ohhocpt18</t>
+  </si>
+  <si>
+    <t>k#Z3%t4R</t>
+  </si>
+  <si>
+    <t>jhIpwcaA</t>
+  </si>
+  <si>
+    <t>JorL</t>
+  </si>
+  <si>
+    <t>SKDhu735</t>
+  </si>
+  <si>
+    <t>kfxhdpl26</t>
+  </si>
+  <si>
+    <t>h$Za5C9!</t>
+  </si>
+  <si>
+    <t>eWRNTNNg</t>
+  </si>
+  <si>
+    <t>cDvN</t>
+  </si>
+  <si>
+    <t>Vdkri165</t>
+  </si>
+  <si>
+    <t>eofajis70</t>
+  </si>
+  <si>
+    <t>S$34sk!J</t>
+  </si>
+  <si>
+    <t>XuuIByJL</t>
+  </si>
+  <si>
+    <t>PVbe</t>
+  </si>
+  <si>
+    <t>BLzce548</t>
+  </si>
+  <si>
+    <t>vfckzzd55</t>
+  </si>
+  <si>
+    <t>gs9K7#%J</t>
+  </si>
+  <si>
+    <t>MZzDxsxD</t>
+  </si>
+  <si>
+    <t>LVtS</t>
+  </si>
+  <si>
+    <t>IYHJt182</t>
+  </si>
+  <si>
+    <t>rhqmkmd73</t>
+  </si>
+  <si>
+    <t>x$4&amp;3DcT</t>
+  </si>
+  <si>
+    <t>JtHIUZPt</t>
+  </si>
+  <si>
+    <t>ZFUI</t>
+  </si>
+  <si>
+    <t>iOTTV288</t>
+  </si>
+  <si>
+    <t>sjfcjby62</t>
+  </si>
+  <si>
+    <t>zJ$G5!u3</t>
+  </si>
+  <si>
+    <t>SHcDUEik</t>
+  </si>
+  <si>
+    <t>NCcq</t>
+  </si>
+  <si>
+    <t>LEXqT812</t>
+  </si>
+  <si>
+    <t>pctlqjr48</t>
+  </si>
+  <si>
+    <t>qTa#35Q!</t>
+  </si>
+  <si>
+    <t>PMKjgDsE</t>
+  </si>
+  <si>
+    <t>lDVd</t>
+  </si>
+  <si>
+    <t>SrGlO144</t>
+  </si>
+  <si>
+    <t>pafwftt50</t>
+  </si>
+  <si>
+    <t>Y5v7s!A$</t>
+  </si>
+  <si>
+    <t>BOavcxes</t>
+  </si>
+  <si>
+    <t>entM</t>
+  </si>
+  <si>
+    <t>JjfLc424</t>
+  </si>
+  <si>
+    <t>kqmgvbw96</t>
+  </si>
+  <si>
+    <t>ghC!2R7&amp;</t>
+  </si>
+  <si>
+    <t>XQycXhhs</t>
+  </si>
+  <si>
+    <t>YiDx</t>
+  </si>
+  <si>
+    <t>xUgbx710</t>
+  </si>
+  <si>
+    <t>xuzwjuq81</t>
+  </si>
+  <si>
+    <t>yx46$V&amp;Y</t>
+  </si>
+  <si>
+    <t>zSMYmVHM</t>
+  </si>
+  <si>
+    <t>NeCt</t>
+  </si>
+  <si>
+    <t>PLyWH267</t>
+  </si>
+  <si>
+    <t>ekagmxq34</t>
+  </si>
+  <si>
+    <t>J4P$qm!3</t>
+  </si>
+  <si>
+    <t>kZnEpFOX</t>
+  </si>
+  <si>
+    <t>AjSz</t>
+  </si>
+  <si>
+    <t>NMuRO348</t>
+  </si>
+  <si>
+    <t>tprbjzx54</t>
+  </si>
+  <si>
+    <t>P$#6p3Rz</t>
+  </si>
+  <si>
+    <t>sDlXpIkG</t>
+  </si>
+  <si>
+    <t>MKPe</t>
+  </si>
+  <si>
+    <t>sEYGQ498</t>
+  </si>
+  <si>
+    <t>rhdxxpa18</t>
+  </si>
+  <si>
+    <t>Jcw3A!#9</t>
+  </si>
+  <si>
+    <t>wqtihnpz</t>
+  </si>
+  <si>
+    <t>rmkm</t>
+  </si>
+  <si>
+    <t>SWafV497</t>
+  </si>
+  <si>
+    <t>ehvdkcr54</t>
+  </si>
+  <si>
+    <t>N!3&amp;J9pz</t>
+  </si>
+  <si>
+    <t>NqUYHwNL</t>
+  </si>
+  <si>
+    <t>fbDN</t>
   </si>
 </sst>
 </file>
@@ -712,10 +862,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H21"/>
+      <selection activeCell="A1" sqref="A1:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -751,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004222</v>
+        <v>231006201</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -777,7 +927,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231004221</v>
+        <v>231006200</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -803,7 +953,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231004220</v>
+        <v>231006199</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -829,7 +979,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231004219</v>
+        <v>231006198</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -855,7 +1005,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>231004218</v>
+        <v>231006197</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -881,7 +1031,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>231004217</v>
+        <v>231006196</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -907,7 +1057,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="2">
-        <v>231004216</v>
+        <v>231006195</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
@@ -933,7 +1083,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>231004215</v>
+        <v>231006194</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
@@ -959,7 +1109,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2">
-        <v>231004214</v>
+        <v>231006193</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>51</v>
@@ -985,7 +1135,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="2">
-        <v>231004213</v>
+        <v>231006192</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
@@ -1011,7 +1161,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="2">
-        <v>231004212</v>
+        <v>231006191</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>61</v>
@@ -1037,7 +1187,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="2">
-        <v>231004211</v>
+        <v>231006190</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>66</v>
@@ -1063,7 +1213,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2">
-        <v>231004210</v>
+        <v>231006189</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>71</v>
@@ -1089,7 +1239,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="2">
-        <v>231004209</v>
+        <v>231006188</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>76</v>
@@ -1115,7 +1265,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="2">
-        <v>231004208</v>
+        <v>231006187</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>81</v>
@@ -1141,7 +1291,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="2">
-        <v>231004207</v>
+        <v>231006186</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>86</v>
@@ -1167,7 +1317,7 @@
         <v>90</v>
       </c>
       <c r="B18" s="2">
-        <v>231004206</v>
+        <v>231006185</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>91</v>
@@ -1193,7 +1343,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="2">
-        <v>231004205</v>
+        <v>231006184</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>96</v>
@@ -1219,7 +1369,7 @@
         <v>100</v>
       </c>
       <c r="B20" s="2">
-        <v>231004204</v>
+        <v>231006183</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>101</v>
@@ -1245,7 +1395,7 @@
         <v>105</v>
       </c>
       <c r="B21" s="2">
-        <v>231004203</v>
+        <v>231006182</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>106</v>
@@ -1263,6 +1413,266 @@
         <v>109</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="2">
+        <v>231006181</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2">
+        <v>231006180</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="2">
+        <v>231006179</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="2">
+        <v>231006178</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="2">
+        <v>231006177</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="2">
+        <v>231006176</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="2">
+        <v>231006175</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="2">
+        <v>231006174</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="2">
+        <v>231006173</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="2">
+        <v>231006172</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,55 +41,430 @@
     <t>Role</t>
   </si>
   <si>
-    <t>bjqqY352</t>
-  </si>
-  <si>
-    <t>nvoqwst73</t>
-  </si>
-  <si>
-    <t>N9%bq2Z!</t>
+    <t>kWKIl866</t>
+  </si>
+  <si>
+    <t>bmsfjjm22</t>
+  </si>
+  <si>
+    <t>rhP4T$3%</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>TgUkKiMO</t>
-  </si>
-  <si>
-    <t>MVuo</t>
+    <t>KKySMdPn</t>
+  </si>
+  <si>
+    <t>eoiL</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>mqoHd682</t>
-  </si>
-  <si>
-    <t>iknbmpv94</t>
-  </si>
-  <si>
-    <t>f%Kn9!3A</t>
-  </si>
-  <si>
-    <t>mnNMjXrj</t>
-  </si>
-  <si>
-    <t>dwTK</t>
-  </si>
-  <si>
-    <t>cLzTQ872</t>
-  </si>
-  <si>
-    <t>dhbnrvz47</t>
-  </si>
-  <si>
-    <t>h2EQ&amp;7$s</t>
-  </si>
-  <si>
-    <t>EpdduZHI</t>
-  </si>
-  <si>
-    <t>hAFK</t>
+    <t>ICrzd241</t>
+  </si>
+  <si>
+    <t>fmysokd64</t>
+  </si>
+  <si>
+    <t>b%RF!d59</t>
+  </si>
+  <si>
+    <t>lIwgloED</t>
+  </si>
+  <si>
+    <t>GgAT</t>
+  </si>
+  <si>
+    <t>PFrBZ507</t>
+  </si>
+  <si>
+    <t>cuxrgic82</t>
+  </si>
+  <si>
+    <t>pM5&amp;P6#e</t>
+  </si>
+  <si>
+    <t>BTHZkWSl</t>
+  </si>
+  <si>
+    <t>gDOT</t>
+  </si>
+  <si>
+    <t>MSyTI183</t>
+  </si>
+  <si>
+    <t>txhtqnm54</t>
+  </si>
+  <si>
+    <t>s56#F&amp;fP</t>
+  </si>
+  <si>
+    <t>YgKBmmuk</t>
+  </si>
+  <si>
+    <t>MBcz</t>
+  </si>
+  <si>
+    <t>hgOqV969</t>
+  </si>
+  <si>
+    <t>mqizxio35</t>
+  </si>
+  <si>
+    <t>j&amp;3P#7yR</t>
+  </si>
+  <si>
+    <t>JxJmBRYh</t>
+  </si>
+  <si>
+    <t>ivOG</t>
+  </si>
+  <si>
+    <t>VAFDM526</t>
+  </si>
+  <si>
+    <t>yfzuxsm95</t>
+  </si>
+  <si>
+    <t>K#$g6Ck9</t>
+  </si>
+  <si>
+    <t>gnZHfUGm</t>
+  </si>
+  <si>
+    <t>rTSz</t>
+  </si>
+  <si>
+    <t>EUGTp742</t>
+  </si>
+  <si>
+    <t>ikppijm70</t>
+  </si>
+  <si>
+    <t>n5%4#GJq</t>
+  </si>
+  <si>
+    <t>gGbaqGmO</t>
+  </si>
+  <si>
+    <t>rJqi</t>
+  </si>
+  <si>
+    <t>gsGwr486</t>
+  </si>
+  <si>
+    <t>ikdecaw87</t>
+  </si>
+  <si>
+    <t>uR$7%g5K</t>
+  </si>
+  <si>
+    <t>ssVVcFKU</t>
+  </si>
+  <si>
+    <t>XIYW</t>
+  </si>
+  <si>
+    <t>sDJTf366</t>
+  </si>
+  <si>
+    <t>auusugy40</t>
+  </si>
+  <si>
+    <t>JW3w7!y%</t>
+  </si>
+  <si>
+    <t>kyWoygOy</t>
+  </si>
+  <si>
+    <t>CSDl</t>
+  </si>
+  <si>
+    <t>zqMxh399</t>
+  </si>
+  <si>
+    <t>uinoeou88</t>
+  </si>
+  <si>
+    <t>dM%C24&amp;y</t>
+  </si>
+  <si>
+    <t>VtPASuoj</t>
+  </si>
+  <si>
+    <t>SbyM</t>
+  </si>
+  <si>
+    <t>UpKdT346</t>
+  </si>
+  <si>
+    <t>ppyzoqp78</t>
+  </si>
+  <si>
+    <t>RB46yh%#</t>
+  </si>
+  <si>
+    <t>cHuHBBRj</t>
+  </si>
+  <si>
+    <t>PeZr</t>
+  </si>
+  <si>
+    <t>UniAV385</t>
+  </si>
+  <si>
+    <t>wlsjnyt23</t>
+  </si>
+  <si>
+    <t>HkpK5!3&amp;</t>
+  </si>
+  <si>
+    <t>OUcgRGvG</t>
+  </si>
+  <si>
+    <t>lyaP</t>
+  </si>
+  <si>
+    <t>UPkgP458</t>
+  </si>
+  <si>
+    <t>zuzivsf71</t>
+  </si>
+  <si>
+    <t>W68&amp;!Zda</t>
+  </si>
+  <si>
+    <t>ZfsjONKp</t>
+  </si>
+  <si>
+    <t>ixfC</t>
+  </si>
+  <si>
+    <t>IanIW422</t>
+  </si>
+  <si>
+    <t>rulvrnf43</t>
+  </si>
+  <si>
+    <t>b5H6&amp;$qC</t>
+  </si>
+  <si>
+    <t>PmSYSzjq</t>
+  </si>
+  <si>
+    <t>lgcK</t>
+  </si>
+  <si>
+    <t>qkMTz798</t>
+  </si>
+  <si>
+    <t>hopftei47</t>
+  </si>
+  <si>
+    <t>R4X%e2&amp;p</t>
+  </si>
+  <si>
+    <t>OBXuRANb</t>
+  </si>
+  <si>
+    <t>XxFW</t>
+  </si>
+  <si>
+    <t>TTZhj528</t>
+  </si>
+  <si>
+    <t>elmwgqe26</t>
+  </si>
+  <si>
+    <t>V$7&amp;5Kjs</t>
+  </si>
+  <si>
+    <t>tmEZiReW</t>
+  </si>
+  <si>
+    <t>rgvz</t>
+  </si>
+  <si>
+    <t>wWEkg160</t>
+  </si>
+  <si>
+    <t>veazlpm28</t>
+  </si>
+  <si>
+    <t>TS2%!4tr</t>
+  </si>
+  <si>
+    <t>HBhbivoj</t>
+  </si>
+  <si>
+    <t>JOBX</t>
+  </si>
+  <si>
+    <t>SVsLb132</t>
+  </si>
+  <si>
+    <t>qavwmab25</t>
+  </si>
+  <si>
+    <t>yB9a#U4!</t>
+  </si>
+  <si>
+    <t>zbebEAee</t>
+  </si>
+  <si>
+    <t>XIfS</t>
+  </si>
+  <si>
+    <t>BtldN756</t>
+  </si>
+  <si>
+    <t>walklbo47</t>
+  </si>
+  <si>
+    <t>rJ4$W2!j</t>
+  </si>
+  <si>
+    <t>DhXRZdjb</t>
+  </si>
+  <si>
+    <t>YUMy</t>
+  </si>
+  <si>
+    <t>Bqoby733</t>
+  </si>
+  <si>
+    <t>bjtrzah47</t>
+  </si>
+  <si>
+    <t>B32gXq%!</t>
+  </si>
+  <si>
+    <t>YjmcPhcG</t>
+  </si>
+  <si>
+    <t>tFaf</t>
+  </si>
+  <si>
+    <t>jawgq384</t>
+  </si>
+  <si>
+    <t>pikfjjq96</t>
+  </si>
+  <si>
+    <t>c$72!mCE</t>
+  </si>
+  <si>
+    <t>VzKSlcuk</t>
+  </si>
+  <si>
+    <t>pWxs</t>
+  </si>
+  <si>
+    <t>laItv614</t>
+  </si>
+  <si>
+    <t>gorhidx53</t>
+  </si>
+  <si>
+    <t>NT$4j8f#</t>
+  </si>
+  <si>
+    <t>ewhNOpiI</t>
+  </si>
+  <si>
+    <t>chsi</t>
+  </si>
+  <si>
+    <t>wuXSQ637</t>
+  </si>
+  <si>
+    <t>mrtohpe11</t>
+  </si>
+  <si>
+    <t>yC&amp;2#Q7j</t>
+  </si>
+  <si>
+    <t>YtVPYgqa</t>
+  </si>
+  <si>
+    <t>TnRN</t>
+  </si>
+  <si>
+    <t>aNQFz591</t>
+  </si>
+  <si>
+    <t>zisichv68</t>
+  </si>
+  <si>
+    <t>bHy$9V2&amp;</t>
+  </si>
+  <si>
+    <t>smvtsRqj</t>
+  </si>
+  <si>
+    <t>Tbwh</t>
+  </si>
+  <si>
+    <t>vKbrf357</t>
+  </si>
+  <si>
+    <t>fnsgjzp68</t>
+  </si>
+  <si>
+    <t>p%d4N6Y!</t>
+  </si>
+  <si>
+    <t>FAyQAxjR</t>
+  </si>
+  <si>
+    <t>AtMx</t>
+  </si>
+  <si>
+    <t>PSjWd649</t>
+  </si>
+  <si>
+    <t>irxbvnl50</t>
+  </si>
+  <si>
+    <t>aH9Pe6%!</t>
+  </si>
+  <si>
+    <t>HQNYAjGJ</t>
+  </si>
+  <si>
+    <t>MaaT</t>
+  </si>
+  <si>
+    <t>KorIp279</t>
+  </si>
+  <si>
+    <t>emufcvs89</t>
+  </si>
+  <si>
+    <t>n3&amp;HJx8#</t>
+  </si>
+  <si>
+    <t>xiozsxzy</t>
+  </si>
+  <si>
+    <t>ULXm</t>
+  </si>
+  <si>
+    <t>NIBsz299</t>
+  </si>
+  <si>
+    <t>rjnftyb19</t>
+  </si>
+  <si>
+    <t>z&amp;7$WvR8</t>
+  </si>
+  <si>
+    <t>BajpXiYU</t>
+  </si>
+  <si>
+    <t>PQsF</t>
   </si>
 </sst>
 </file>
@@ -457,10 +832,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="A1" sqref="A1:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231006280</v>
+        <v>231009143</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -522,7 +897,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231006279</v>
+        <v>231009141</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -548,7 +923,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231006278</v>
+        <v>231009140</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -566,6 +941,656 @@
         <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>231009139</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>231009138</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>231009137</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <v>231009136</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>231009135</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>231009134</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>231009133</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>231009132</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>231009131</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2">
+        <v>231009130</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>231009129</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2">
+        <v>231009128</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2">
+        <v>231009127</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2">
+        <v>231009126</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="2">
+        <v>231009125</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2">
+        <v>231009124</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="2">
+        <v>231009123</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="2">
+        <v>231009122</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2">
+        <v>231009121</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="2">
+        <v>231009120</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="2">
+        <v>231009119</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="2">
+        <v>231009118</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="2">
+        <v>231009117</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="2">
+        <v>231009116</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="2">
+        <v>231009115</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,55 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>bjqqY352</t>
-  </si>
-  <si>
-    <t>nvoqwst73</t>
-  </si>
-  <si>
-    <t>N9%bq2Z!</t>
+    <t>fRHry839</t>
+  </si>
+  <si>
+    <t>cjmmreo86</t>
+  </si>
+  <si>
+    <t>kPj8&amp;G!7</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>TgUkKiMO</t>
-  </si>
-  <si>
-    <t>MVuo</t>
+    <t>qkXVVxCk</t>
+  </si>
+  <si>
+    <t>LVNW</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>mqoHd682</t>
-  </si>
-  <si>
-    <t>iknbmpv94</t>
-  </si>
-  <si>
-    <t>f%Kn9!3A</t>
-  </si>
-  <si>
-    <t>mnNMjXrj</t>
-  </si>
-  <si>
-    <t>dwTK</t>
-  </si>
-  <si>
-    <t>cLzTQ872</t>
-  </si>
-  <si>
-    <t>dhbnrvz47</t>
-  </si>
-  <si>
-    <t>h2EQ&amp;7$s</t>
-  </si>
-  <si>
-    <t>EpdduZHI</t>
-  </si>
-  <si>
-    <t>hAFK</t>
+    <t>KyexF639</t>
+  </si>
+  <si>
+    <t>tyvdrww63</t>
+  </si>
+  <si>
+    <t>EaJ$%u67</t>
+  </si>
+  <si>
+    <t>ZsiKulkC</t>
+  </si>
+  <si>
+    <t>Tisc</t>
   </si>
 </sst>
 </file>
@@ -457,10 +442,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="A1" sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231006280</v>
+        <v>231009373</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -522,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231006279</v>
+        <v>231009372</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -540,32 +525,6 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>231006278</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,40 +41,430 @@
     <t>Role</t>
   </si>
   <si>
-    <t>fRHry839</t>
-  </si>
-  <si>
-    <t>cjmmreo86</t>
-  </si>
-  <si>
-    <t>kPj8&amp;G!7</t>
+    <t>kWKIl866</t>
+  </si>
+  <si>
+    <t>bmsfjjm22</t>
+  </si>
+  <si>
+    <t>rhP4T$3%</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>qkXVVxCk</t>
-  </si>
-  <si>
-    <t>LVNW</t>
+    <t>KKySMdPn</t>
+  </si>
+  <si>
+    <t>eoiL</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>KyexF639</t>
-  </si>
-  <si>
-    <t>tyvdrww63</t>
-  </si>
-  <si>
-    <t>EaJ$%u67</t>
-  </si>
-  <si>
-    <t>ZsiKulkC</t>
-  </si>
-  <si>
-    <t>Tisc</t>
+    <t>ICrzd241</t>
+  </si>
+  <si>
+    <t>fmysokd64</t>
+  </si>
+  <si>
+    <t>b%RF!d59</t>
+  </si>
+  <si>
+    <t>lIwgloED</t>
+  </si>
+  <si>
+    <t>GgAT</t>
+  </si>
+  <si>
+    <t>PFrBZ507</t>
+  </si>
+  <si>
+    <t>cuxrgic82</t>
+  </si>
+  <si>
+    <t>pM5&amp;P6#e</t>
+  </si>
+  <si>
+    <t>BTHZkWSl</t>
+  </si>
+  <si>
+    <t>gDOT</t>
+  </si>
+  <si>
+    <t>MSyTI183</t>
+  </si>
+  <si>
+    <t>txhtqnm54</t>
+  </si>
+  <si>
+    <t>s56#F&amp;fP</t>
+  </si>
+  <si>
+    <t>YgKBmmuk</t>
+  </si>
+  <si>
+    <t>MBcz</t>
+  </si>
+  <si>
+    <t>hgOqV969</t>
+  </si>
+  <si>
+    <t>mqizxio35</t>
+  </si>
+  <si>
+    <t>j&amp;3P#7yR</t>
+  </si>
+  <si>
+    <t>JxJmBRYh</t>
+  </si>
+  <si>
+    <t>ivOG</t>
+  </si>
+  <si>
+    <t>VAFDM526</t>
+  </si>
+  <si>
+    <t>yfzuxsm95</t>
+  </si>
+  <si>
+    <t>K#$g6Ck9</t>
+  </si>
+  <si>
+    <t>gnZHfUGm</t>
+  </si>
+  <si>
+    <t>rTSz</t>
+  </si>
+  <si>
+    <t>EUGTp742</t>
+  </si>
+  <si>
+    <t>ikppijm70</t>
+  </si>
+  <si>
+    <t>n5%4#GJq</t>
+  </si>
+  <si>
+    <t>gGbaqGmO</t>
+  </si>
+  <si>
+    <t>rJqi</t>
+  </si>
+  <si>
+    <t>gsGwr486</t>
+  </si>
+  <si>
+    <t>ikdecaw87</t>
+  </si>
+  <si>
+    <t>uR$7%g5K</t>
+  </si>
+  <si>
+    <t>ssVVcFKU</t>
+  </si>
+  <si>
+    <t>XIYW</t>
+  </si>
+  <si>
+    <t>sDJTf366</t>
+  </si>
+  <si>
+    <t>auusugy40</t>
+  </si>
+  <si>
+    <t>JW3w7!y%</t>
+  </si>
+  <si>
+    <t>kyWoygOy</t>
+  </si>
+  <si>
+    <t>CSDl</t>
+  </si>
+  <si>
+    <t>zqMxh399</t>
+  </si>
+  <si>
+    <t>uinoeou88</t>
+  </si>
+  <si>
+    <t>dM%C24&amp;y</t>
+  </si>
+  <si>
+    <t>VtPASuoj</t>
+  </si>
+  <si>
+    <t>SbyM</t>
+  </si>
+  <si>
+    <t>UpKdT346</t>
+  </si>
+  <si>
+    <t>ppyzoqp78</t>
+  </si>
+  <si>
+    <t>RB46yh%#</t>
+  </si>
+  <si>
+    <t>cHuHBBRj</t>
+  </si>
+  <si>
+    <t>PeZr</t>
+  </si>
+  <si>
+    <t>UniAV385</t>
+  </si>
+  <si>
+    <t>wlsjnyt23</t>
+  </si>
+  <si>
+    <t>HkpK5!3&amp;</t>
+  </si>
+  <si>
+    <t>OUcgRGvG</t>
+  </si>
+  <si>
+    <t>lyaP</t>
+  </si>
+  <si>
+    <t>UPkgP458</t>
+  </si>
+  <si>
+    <t>zuzivsf71</t>
+  </si>
+  <si>
+    <t>W68&amp;!Zda</t>
+  </si>
+  <si>
+    <t>ZfsjONKp</t>
+  </si>
+  <si>
+    <t>ixfC</t>
+  </si>
+  <si>
+    <t>IanIW422</t>
+  </si>
+  <si>
+    <t>rulvrnf43</t>
+  </si>
+  <si>
+    <t>b5H6&amp;$qC</t>
+  </si>
+  <si>
+    <t>PmSYSzjq</t>
+  </si>
+  <si>
+    <t>lgcK</t>
+  </si>
+  <si>
+    <t>qkMTz798</t>
+  </si>
+  <si>
+    <t>hopftei47</t>
+  </si>
+  <si>
+    <t>R4X%e2&amp;p</t>
+  </si>
+  <si>
+    <t>OBXuRANb</t>
+  </si>
+  <si>
+    <t>XxFW</t>
+  </si>
+  <si>
+    <t>TTZhj528</t>
+  </si>
+  <si>
+    <t>elmwgqe26</t>
+  </si>
+  <si>
+    <t>V$7&amp;5Kjs</t>
+  </si>
+  <si>
+    <t>tmEZiReW</t>
+  </si>
+  <si>
+    <t>rgvz</t>
+  </si>
+  <si>
+    <t>wWEkg160</t>
+  </si>
+  <si>
+    <t>veazlpm28</t>
+  </si>
+  <si>
+    <t>TS2%!4tr</t>
+  </si>
+  <si>
+    <t>HBhbivoj</t>
+  </si>
+  <si>
+    <t>JOBX</t>
+  </si>
+  <si>
+    <t>SVsLb132</t>
+  </si>
+  <si>
+    <t>qavwmab25</t>
+  </si>
+  <si>
+    <t>yB9a#U4!</t>
+  </si>
+  <si>
+    <t>zbebEAee</t>
+  </si>
+  <si>
+    <t>XIfS</t>
+  </si>
+  <si>
+    <t>BtldN756</t>
+  </si>
+  <si>
+    <t>walklbo47</t>
+  </si>
+  <si>
+    <t>rJ4$W2!j</t>
+  </si>
+  <si>
+    <t>DhXRZdjb</t>
+  </si>
+  <si>
+    <t>YUMy</t>
+  </si>
+  <si>
+    <t>Bqoby733</t>
+  </si>
+  <si>
+    <t>bjtrzah47</t>
+  </si>
+  <si>
+    <t>B32gXq%!</t>
+  </si>
+  <si>
+    <t>YjmcPhcG</t>
+  </si>
+  <si>
+    <t>tFaf</t>
+  </si>
+  <si>
+    <t>jawgq384</t>
+  </si>
+  <si>
+    <t>pikfjjq96</t>
+  </si>
+  <si>
+    <t>c$72!mCE</t>
+  </si>
+  <si>
+    <t>VzKSlcuk</t>
+  </si>
+  <si>
+    <t>pWxs</t>
+  </si>
+  <si>
+    <t>laItv614</t>
+  </si>
+  <si>
+    <t>gorhidx53</t>
+  </si>
+  <si>
+    <t>NT$4j8f#</t>
+  </si>
+  <si>
+    <t>ewhNOpiI</t>
+  </si>
+  <si>
+    <t>chsi</t>
+  </si>
+  <si>
+    <t>wuXSQ637</t>
+  </si>
+  <si>
+    <t>mrtohpe11</t>
+  </si>
+  <si>
+    <t>yC&amp;2#Q7j</t>
+  </si>
+  <si>
+    <t>YtVPYgqa</t>
+  </si>
+  <si>
+    <t>TnRN</t>
+  </si>
+  <si>
+    <t>aNQFz591</t>
+  </si>
+  <si>
+    <t>zisichv68</t>
+  </si>
+  <si>
+    <t>bHy$9V2&amp;</t>
+  </si>
+  <si>
+    <t>smvtsRqj</t>
+  </si>
+  <si>
+    <t>Tbwh</t>
+  </si>
+  <si>
+    <t>vKbrf357</t>
+  </si>
+  <si>
+    <t>fnsgjzp68</t>
+  </si>
+  <si>
+    <t>p%d4N6Y!</t>
+  </si>
+  <si>
+    <t>FAyQAxjR</t>
+  </si>
+  <si>
+    <t>AtMx</t>
+  </si>
+  <si>
+    <t>PSjWd649</t>
+  </si>
+  <si>
+    <t>irxbvnl50</t>
+  </si>
+  <si>
+    <t>aH9Pe6%!</t>
+  </si>
+  <si>
+    <t>HQNYAjGJ</t>
+  </si>
+  <si>
+    <t>MaaT</t>
+  </si>
+  <si>
+    <t>KorIp279</t>
+  </si>
+  <si>
+    <t>emufcvs89</t>
+  </si>
+  <si>
+    <t>n3&amp;HJx8#</t>
+  </si>
+  <si>
+    <t>xiozsxzy</t>
+  </si>
+  <si>
+    <t>ULXm</t>
+  </si>
+  <si>
+    <t>NIBsz299</t>
+  </si>
+  <si>
+    <t>rjnftyb19</t>
+  </si>
+  <si>
+    <t>z&amp;7$WvR8</t>
+  </si>
+  <si>
+    <t>BajpXiYU</t>
+  </si>
+  <si>
+    <t>PQsF</t>
   </si>
 </sst>
 </file>
@@ -442,10 +832,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H3"/>
+      <selection activeCell="A1" sqref="A1:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -481,7 +871,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231009373</v>
+        <v>231009143</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +897,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231009372</v>
+        <v>231009141</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -525,6 +915,682 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>231009140</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>231009139</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>231009138</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>231009137</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <v>231009136</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>231009135</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>231009134</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>231009133</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>231009132</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>231009131</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2">
+        <v>231009130</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>231009129</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2">
+        <v>231009128</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2">
+        <v>231009127</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2">
+        <v>231009126</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="2">
+        <v>231009125</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2">
+        <v>231009124</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="2">
+        <v>231009123</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="2">
+        <v>231009122</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2">
+        <v>231009121</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="2">
+        <v>231009120</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="2">
+        <v>231009119</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="2">
+        <v>231009118</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="2">
+        <v>231009117</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="2">
+        <v>231009116</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="2">
+        <v>231009115</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,430 +41,460 @@
     <t>Role</t>
   </si>
   <si>
-    <t>kWKIl866</t>
-  </si>
-  <si>
-    <t>bmsfjjm22</t>
-  </si>
-  <si>
-    <t>rhP4T$3%</t>
+    <t>GvzxQ765</t>
+  </si>
+  <si>
+    <t>wkpqvvo42</t>
+  </si>
+  <si>
+    <t>Ta&amp;6v4C$</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>KKySMdPn</t>
-  </si>
-  <si>
-    <t>eoiL</t>
+    <t>QYmeiJAx</t>
+  </si>
+  <si>
+    <t>ePBw</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>ICrzd241</t>
-  </si>
-  <si>
-    <t>fmysokd64</t>
-  </si>
-  <si>
-    <t>b%RF!d59</t>
-  </si>
-  <si>
-    <t>lIwgloED</t>
-  </si>
-  <si>
-    <t>GgAT</t>
-  </si>
-  <si>
-    <t>PFrBZ507</t>
-  </si>
-  <si>
-    <t>cuxrgic82</t>
-  </si>
-  <si>
-    <t>pM5&amp;P6#e</t>
-  </si>
-  <si>
-    <t>BTHZkWSl</t>
-  </si>
-  <si>
-    <t>gDOT</t>
-  </si>
-  <si>
-    <t>MSyTI183</t>
-  </si>
-  <si>
-    <t>txhtqnm54</t>
-  </si>
-  <si>
-    <t>s56#F&amp;fP</t>
-  </si>
-  <si>
-    <t>YgKBmmuk</t>
-  </si>
-  <si>
-    <t>MBcz</t>
-  </si>
-  <si>
-    <t>hgOqV969</t>
-  </si>
-  <si>
-    <t>mqizxio35</t>
-  </si>
-  <si>
-    <t>j&amp;3P#7yR</t>
-  </si>
-  <si>
-    <t>JxJmBRYh</t>
-  </si>
-  <si>
-    <t>ivOG</t>
-  </si>
-  <si>
-    <t>VAFDM526</t>
-  </si>
-  <si>
-    <t>yfzuxsm95</t>
-  </si>
-  <si>
-    <t>K#$g6Ck9</t>
-  </si>
-  <si>
-    <t>gnZHfUGm</t>
-  </si>
-  <si>
-    <t>rTSz</t>
-  </si>
-  <si>
-    <t>EUGTp742</t>
-  </si>
-  <si>
-    <t>ikppijm70</t>
-  </si>
-  <si>
-    <t>n5%4#GJq</t>
-  </si>
-  <si>
-    <t>gGbaqGmO</t>
-  </si>
-  <si>
-    <t>rJqi</t>
-  </si>
-  <si>
-    <t>gsGwr486</t>
-  </si>
-  <si>
-    <t>ikdecaw87</t>
-  </si>
-  <si>
-    <t>uR$7%g5K</t>
-  </si>
-  <si>
-    <t>ssVVcFKU</t>
-  </si>
-  <si>
-    <t>XIYW</t>
-  </si>
-  <si>
-    <t>sDJTf366</t>
-  </si>
-  <si>
-    <t>auusugy40</t>
-  </si>
-  <si>
-    <t>JW3w7!y%</t>
-  </si>
-  <si>
-    <t>kyWoygOy</t>
-  </si>
-  <si>
-    <t>CSDl</t>
-  </si>
-  <si>
-    <t>zqMxh399</t>
-  </si>
-  <si>
-    <t>uinoeou88</t>
-  </si>
-  <si>
-    <t>dM%C24&amp;y</t>
-  </si>
-  <si>
-    <t>VtPASuoj</t>
-  </si>
-  <si>
-    <t>SbyM</t>
-  </si>
-  <si>
-    <t>UpKdT346</t>
-  </si>
-  <si>
-    <t>ppyzoqp78</t>
-  </si>
-  <si>
-    <t>RB46yh%#</t>
-  </si>
-  <si>
-    <t>cHuHBBRj</t>
-  </si>
-  <si>
-    <t>PeZr</t>
-  </si>
-  <si>
-    <t>UniAV385</t>
-  </si>
-  <si>
-    <t>wlsjnyt23</t>
-  </si>
-  <si>
-    <t>HkpK5!3&amp;</t>
-  </si>
-  <si>
-    <t>OUcgRGvG</t>
-  </si>
-  <si>
-    <t>lyaP</t>
-  </si>
-  <si>
-    <t>UPkgP458</t>
-  </si>
-  <si>
-    <t>zuzivsf71</t>
-  </si>
-  <si>
-    <t>W68&amp;!Zda</t>
-  </si>
-  <si>
-    <t>ZfsjONKp</t>
-  </si>
-  <si>
-    <t>ixfC</t>
-  </si>
-  <si>
-    <t>IanIW422</t>
-  </si>
-  <si>
-    <t>rulvrnf43</t>
-  </si>
-  <si>
-    <t>b5H6&amp;$qC</t>
-  </si>
-  <si>
-    <t>PmSYSzjq</t>
-  </si>
-  <si>
-    <t>lgcK</t>
-  </si>
-  <si>
-    <t>qkMTz798</t>
-  </si>
-  <si>
-    <t>hopftei47</t>
-  </si>
-  <si>
-    <t>R4X%e2&amp;p</t>
-  </si>
-  <si>
-    <t>OBXuRANb</t>
-  </si>
-  <si>
-    <t>XxFW</t>
-  </si>
-  <si>
-    <t>TTZhj528</t>
-  </si>
-  <si>
-    <t>elmwgqe26</t>
-  </si>
-  <si>
-    <t>V$7&amp;5Kjs</t>
-  </si>
-  <si>
-    <t>tmEZiReW</t>
-  </si>
-  <si>
-    <t>rgvz</t>
-  </si>
-  <si>
-    <t>wWEkg160</t>
-  </si>
-  <si>
-    <t>veazlpm28</t>
-  </si>
-  <si>
-    <t>TS2%!4tr</t>
-  </si>
-  <si>
-    <t>HBhbivoj</t>
-  </si>
-  <si>
-    <t>JOBX</t>
-  </si>
-  <si>
-    <t>SVsLb132</t>
-  </si>
-  <si>
-    <t>qavwmab25</t>
-  </si>
-  <si>
-    <t>yB9a#U4!</t>
-  </si>
-  <si>
-    <t>zbebEAee</t>
-  </si>
-  <si>
-    <t>XIfS</t>
-  </si>
-  <si>
-    <t>BtldN756</t>
-  </si>
-  <si>
-    <t>walklbo47</t>
-  </si>
-  <si>
-    <t>rJ4$W2!j</t>
-  </si>
-  <si>
-    <t>DhXRZdjb</t>
-  </si>
-  <si>
-    <t>YUMy</t>
-  </si>
-  <si>
-    <t>Bqoby733</t>
-  </si>
-  <si>
-    <t>bjtrzah47</t>
-  </si>
-  <si>
-    <t>B32gXq%!</t>
-  </si>
-  <si>
-    <t>YjmcPhcG</t>
-  </si>
-  <si>
-    <t>tFaf</t>
-  </si>
-  <si>
-    <t>jawgq384</t>
-  </si>
-  <si>
-    <t>pikfjjq96</t>
-  </si>
-  <si>
-    <t>c$72!mCE</t>
-  </si>
-  <si>
-    <t>VzKSlcuk</t>
-  </si>
-  <si>
-    <t>pWxs</t>
-  </si>
-  <si>
-    <t>laItv614</t>
-  </si>
-  <si>
-    <t>gorhidx53</t>
-  </si>
-  <si>
-    <t>NT$4j8f#</t>
-  </si>
-  <si>
-    <t>ewhNOpiI</t>
-  </si>
-  <si>
-    <t>chsi</t>
-  </si>
-  <si>
-    <t>wuXSQ637</t>
-  </si>
-  <si>
-    <t>mrtohpe11</t>
-  </si>
-  <si>
-    <t>yC&amp;2#Q7j</t>
-  </si>
-  <si>
-    <t>YtVPYgqa</t>
-  </si>
-  <si>
-    <t>TnRN</t>
-  </si>
-  <si>
-    <t>aNQFz591</t>
-  </si>
-  <si>
-    <t>zisichv68</t>
-  </si>
-  <si>
-    <t>bHy$9V2&amp;</t>
-  </si>
-  <si>
-    <t>smvtsRqj</t>
-  </si>
-  <si>
-    <t>Tbwh</t>
-  </si>
-  <si>
-    <t>vKbrf357</t>
-  </si>
-  <si>
-    <t>fnsgjzp68</t>
-  </si>
-  <si>
-    <t>p%d4N6Y!</t>
-  </si>
-  <si>
-    <t>FAyQAxjR</t>
-  </si>
-  <si>
-    <t>AtMx</t>
-  </si>
-  <si>
-    <t>PSjWd649</t>
-  </si>
-  <si>
-    <t>irxbvnl50</t>
-  </si>
-  <si>
-    <t>aH9Pe6%!</t>
-  </si>
-  <si>
-    <t>HQNYAjGJ</t>
-  </si>
-  <si>
-    <t>MaaT</t>
-  </si>
-  <si>
-    <t>KorIp279</t>
-  </si>
-  <si>
-    <t>emufcvs89</t>
-  </si>
-  <si>
-    <t>n3&amp;HJx8#</t>
-  </si>
-  <si>
-    <t>xiozsxzy</t>
-  </si>
-  <si>
-    <t>ULXm</t>
-  </si>
-  <si>
-    <t>NIBsz299</t>
-  </si>
-  <si>
-    <t>rjnftyb19</t>
-  </si>
-  <si>
-    <t>z&amp;7$WvR8</t>
-  </si>
-  <si>
-    <t>BajpXiYU</t>
-  </si>
-  <si>
-    <t>PQsF</t>
+    <t>jdZVN154</t>
+  </si>
+  <si>
+    <t>xqgqhbg19</t>
+  </si>
+  <si>
+    <t>S!N%k2x5</t>
+  </si>
+  <si>
+    <t>EuyHqwgM</t>
+  </si>
+  <si>
+    <t>pAwW</t>
+  </si>
+  <si>
+    <t>cryjX294</t>
+  </si>
+  <si>
+    <t>uunrjns46</t>
+  </si>
+  <si>
+    <t>n4wF&amp;6N$</t>
+  </si>
+  <si>
+    <t>hpcAgAEQ</t>
+  </si>
+  <si>
+    <t>YLnl</t>
+  </si>
+  <si>
+    <t>cAoaS617</t>
+  </si>
+  <si>
+    <t>fwwhbge36</t>
+  </si>
+  <si>
+    <t>P!%qGe78</t>
+  </si>
+  <si>
+    <t>DLbrBFmB</t>
+  </si>
+  <si>
+    <t>cOoj</t>
+  </si>
+  <si>
+    <t>qcZxp943</t>
+  </si>
+  <si>
+    <t>vqocuaq35</t>
+  </si>
+  <si>
+    <t>X7Mzp%3&amp;</t>
+  </si>
+  <si>
+    <t>ElFdomZm</t>
+  </si>
+  <si>
+    <t>mhoj</t>
+  </si>
+  <si>
+    <t>dmSaB820</t>
+  </si>
+  <si>
+    <t>jqsujfj21</t>
+  </si>
+  <si>
+    <t>fCw3%2$R</t>
+  </si>
+  <si>
+    <t>CMXDySMt</t>
+  </si>
+  <si>
+    <t>cjOy</t>
+  </si>
+  <si>
+    <t>RiAuk516</t>
+  </si>
+  <si>
+    <t>vggvahx93</t>
+  </si>
+  <si>
+    <t>y7&amp;dYD$9</t>
+  </si>
+  <si>
+    <t>jEUwzDBH</t>
+  </si>
+  <si>
+    <t>ufmn</t>
+  </si>
+  <si>
+    <t>CQQdC368</t>
+  </si>
+  <si>
+    <t>zqzkmcv37</t>
+  </si>
+  <si>
+    <t>S&amp;bD$7t6</t>
+  </si>
+  <si>
+    <t>oDGfPEGn</t>
+  </si>
+  <si>
+    <t>TBtl</t>
+  </si>
+  <si>
+    <t>zJunY702</t>
+  </si>
+  <si>
+    <t>vdkpwiw30</t>
+  </si>
+  <si>
+    <t>Tz5Vd&amp;!2</t>
+  </si>
+  <si>
+    <t>LrqxltjU</t>
+  </si>
+  <si>
+    <t>qsde</t>
+  </si>
+  <si>
+    <t>mYQUO875</t>
+  </si>
+  <si>
+    <t>pdamxor19</t>
+  </si>
+  <si>
+    <t>Ezp25T$&amp;</t>
+  </si>
+  <si>
+    <t>hxYGFnGR</t>
+  </si>
+  <si>
+    <t>QohO</t>
+  </si>
+  <si>
+    <t>iDcqN782</t>
+  </si>
+  <si>
+    <t>mqqpikx71</t>
+  </si>
+  <si>
+    <t>Swn7Y&amp;8#</t>
+  </si>
+  <si>
+    <t>MHkGdeFM</t>
+  </si>
+  <si>
+    <t>HtGW</t>
+  </si>
+  <si>
+    <t>QdYsz399</t>
+  </si>
+  <si>
+    <t>omzxjiy89</t>
+  </si>
+  <si>
+    <t>m3&amp;8#HfP</t>
+  </si>
+  <si>
+    <t>wUUxzRXL</t>
+  </si>
+  <si>
+    <t>GaWZ</t>
+  </si>
+  <si>
+    <t>uIAfi953</t>
+  </si>
+  <si>
+    <t>kdbtlep44</t>
+  </si>
+  <si>
+    <t>M$&amp;cr37S</t>
+  </si>
+  <si>
+    <t>iPnDnNtj</t>
+  </si>
+  <si>
+    <t>JLLP</t>
+  </si>
+  <si>
+    <t>hzCYx932</t>
+  </si>
+  <si>
+    <t>cuznhhb42</t>
+  </si>
+  <si>
+    <t>V4p%F!w9</t>
+  </si>
+  <si>
+    <t>WcBmzmqy</t>
+  </si>
+  <si>
+    <t>VRcw</t>
+  </si>
+  <si>
+    <t>CfWBv111</t>
+  </si>
+  <si>
+    <t>jnsqacu89</t>
+  </si>
+  <si>
+    <t>KNr$57m%</t>
+  </si>
+  <si>
+    <t>kXAvWCAJ</t>
+  </si>
+  <si>
+    <t>LQiK</t>
+  </si>
+  <si>
+    <t>DMXIe170</t>
+  </si>
+  <si>
+    <t>tqfdaov47</t>
+  </si>
+  <si>
+    <t>kNs9#W!3</t>
+  </si>
+  <si>
+    <t>yoXGYsov</t>
+  </si>
+  <si>
+    <t>RuGv</t>
+  </si>
+  <si>
+    <t>cHYoJ112</t>
+  </si>
+  <si>
+    <t>doocqzi88</t>
+  </si>
+  <si>
+    <t>H9m%E3$q</t>
+  </si>
+  <si>
+    <t>kKuiwmqs</t>
+  </si>
+  <si>
+    <t>qagp</t>
+  </si>
+  <si>
+    <t>RPfDt933</t>
+  </si>
+  <si>
+    <t>deiudra67</t>
+  </si>
+  <si>
+    <t>Jf5c$A!3</t>
+  </si>
+  <si>
+    <t>foXGLvRM</t>
+  </si>
+  <si>
+    <t>SZjv</t>
+  </si>
+  <si>
+    <t>gkviY311</t>
+  </si>
+  <si>
+    <t>ucmfgvo46</t>
+  </si>
+  <si>
+    <t>a!#m8KC5</t>
+  </si>
+  <si>
+    <t>QEcCutNN</t>
+  </si>
+  <si>
+    <t>zVtA</t>
+  </si>
+  <si>
+    <t>TGdcL393</t>
+  </si>
+  <si>
+    <t>afupyqu91</t>
+  </si>
+  <si>
+    <t>B23Q#t&amp;s</t>
+  </si>
+  <si>
+    <t>NAVRXzgq</t>
+  </si>
+  <si>
+    <t>DTNI</t>
+  </si>
+  <si>
+    <t>iLUQd874</t>
+  </si>
+  <si>
+    <t>sgynmtk20</t>
+  </si>
+  <si>
+    <t>r8v&amp;3%UQ</t>
+  </si>
+  <si>
+    <t>XZZRhUQs</t>
+  </si>
+  <si>
+    <t>VnZi</t>
+  </si>
+  <si>
+    <t>wYxSI808</t>
+  </si>
+  <si>
+    <t>oosabkh55</t>
+  </si>
+  <si>
+    <t>Q47&amp;uWv$</t>
+  </si>
+  <si>
+    <t>WZUGjSLl</t>
+  </si>
+  <si>
+    <t>KrsX</t>
+  </si>
+  <si>
+    <t>dgSmi533</t>
+  </si>
+  <si>
+    <t>slxfemf65</t>
+  </si>
+  <si>
+    <t>E&amp;P4#ae6</t>
+  </si>
+  <si>
+    <t>fGxtOads</t>
+  </si>
+  <si>
+    <t>UUaF</t>
+  </si>
+  <si>
+    <t>GrfOX839</t>
+  </si>
+  <si>
+    <t>gketwel80</t>
+  </si>
+  <si>
+    <t>K7#gFm$6</t>
+  </si>
+  <si>
+    <t>mJQlBcFV</t>
+  </si>
+  <si>
+    <t>Zghv</t>
+  </si>
+  <si>
+    <t>zzfLL736</t>
+  </si>
+  <si>
+    <t>hejkiif74</t>
+  </si>
+  <si>
+    <t>M2d5s!&amp;U</t>
+  </si>
+  <si>
+    <t>odecWHSo</t>
+  </si>
+  <si>
+    <t>KgEe</t>
+  </si>
+  <si>
+    <t>OiojX709</t>
+  </si>
+  <si>
+    <t>rxmdxxy68</t>
+  </si>
+  <si>
+    <t>U8%&amp;qV7r</t>
+  </si>
+  <si>
+    <t>tYcDfuJM</t>
+  </si>
+  <si>
+    <t>kyWq</t>
+  </si>
+  <si>
+    <t>hekFd748</t>
+  </si>
+  <si>
+    <t>ksapyen34</t>
+  </si>
+  <si>
+    <t>FD$v&amp;67g</t>
+  </si>
+  <si>
+    <t>jUBnnknW</t>
+  </si>
+  <si>
+    <t>UhfZ</t>
+  </si>
+  <si>
+    <t>yOQkG360</t>
+  </si>
+  <si>
+    <t>kuphumq21</t>
+  </si>
+  <si>
+    <t>v86#!UDq</t>
+  </si>
+  <si>
+    <t>sKIRbtAY</t>
+  </si>
+  <si>
+    <t>nJZp</t>
+  </si>
+  <si>
+    <t>xfbuz440</t>
+  </si>
+  <si>
+    <t>ngzslas35</t>
+  </si>
+  <si>
+    <t>Mv2Q!g3&amp;</t>
+  </si>
+  <si>
+    <t>VgATZgsL</t>
+  </si>
+  <si>
+    <t>dlgL</t>
+  </si>
+  <si>
+    <t>RAGjN194</t>
+  </si>
+  <si>
+    <t>zgempiz22</t>
+  </si>
+  <si>
+    <t>Dmz7%C4$</t>
+  </si>
+  <si>
+    <t>TolpMxrl</t>
+  </si>
+  <si>
+    <t>ADyK</t>
   </si>
 </sst>
 </file>
@@ -832,10 +862,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H29"/>
+      <selection activeCell="A1" sqref="A1:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -871,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231009143</v>
+        <v>231011173</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -897,7 +927,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231009141</v>
+        <v>231011172</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -923,7 +953,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231009140</v>
+        <v>231011171</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -949,7 +979,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231009139</v>
+        <v>231011170</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -975,7 +1005,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>231009138</v>
+        <v>231011169</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -1001,7 +1031,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>231009137</v>
+        <v>231011168</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -1027,7 +1057,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="2">
-        <v>231009136</v>
+        <v>231011167</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
@@ -1053,7 +1083,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>231009135</v>
+        <v>231011166</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
@@ -1079,7 +1109,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2">
-        <v>231009134</v>
+        <v>231011165</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>51</v>
@@ -1105,7 +1135,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="2">
-        <v>231009133</v>
+        <v>231011164</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
@@ -1131,7 +1161,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="2">
-        <v>231009132</v>
+        <v>231011163</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>61</v>
@@ -1157,7 +1187,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="2">
-        <v>231009131</v>
+        <v>231011162</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>66</v>
@@ -1183,7 +1213,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2">
-        <v>231009130</v>
+        <v>231011161</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>71</v>
@@ -1209,7 +1239,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="2">
-        <v>231009129</v>
+        <v>231011160</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>76</v>
@@ -1235,7 +1265,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="2">
-        <v>231009128</v>
+        <v>231011159</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>81</v>
@@ -1261,7 +1291,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="2">
-        <v>231009127</v>
+        <v>231011158</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>86</v>
@@ -1287,7 +1317,7 @@
         <v>90</v>
       </c>
       <c r="B18" s="2">
-        <v>231009126</v>
+        <v>231011157</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>91</v>
@@ -1313,7 +1343,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="2">
-        <v>231009125</v>
+        <v>231011156</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>96</v>
@@ -1339,7 +1369,7 @@
         <v>100</v>
       </c>
       <c r="B20" s="2">
-        <v>231009124</v>
+        <v>231011155</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>101</v>
@@ -1365,7 +1395,7 @@
         <v>105</v>
       </c>
       <c r="B21" s="2">
-        <v>231009123</v>
+        <v>231011154</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>106</v>
@@ -1391,7 +1421,7 @@
         <v>110</v>
       </c>
       <c r="B22" s="2">
-        <v>231009122</v>
+        <v>231011153</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>111</v>
@@ -1417,7 +1447,7 @@
         <v>115</v>
       </c>
       <c r="B23" s="2">
-        <v>231009121</v>
+        <v>231011152</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>116</v>
@@ -1443,7 +1473,7 @@
         <v>120</v>
       </c>
       <c r="B24" s="2">
-        <v>231009120</v>
+        <v>231011151</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>121</v>
@@ -1469,7 +1499,7 @@
         <v>125</v>
       </c>
       <c r="B25" s="2">
-        <v>231009119</v>
+        <v>231011150</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>126</v>
@@ -1495,7 +1525,7 @@
         <v>130</v>
       </c>
       <c r="B26" s="2">
-        <v>231009118</v>
+        <v>231011149</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>131</v>
@@ -1521,7 +1551,7 @@
         <v>135</v>
       </c>
       <c r="B27" s="2">
-        <v>231009117</v>
+        <v>231011148</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>136</v>
@@ -1547,7 +1577,7 @@
         <v>140</v>
       </c>
       <c r="B28" s="2">
-        <v>231009116</v>
+        <v>231011147</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>141</v>
@@ -1573,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B29" s="2">
-        <v>231009115</v>
+        <v>231011146</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>146</v>
@@ -1591,6 +1621,58 @@
         <v>149</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="2">
+        <v>231011145</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="2">
+        <v>231011144</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>MYgaw222</t>
-  </si>
-  <si>
-    <t>iwysbzm97</t>
-  </si>
-  <si>
-    <t>E6C9ys#!</t>
+    <t>MZyLC487</t>
+  </si>
+  <si>
+    <t>atgqjmj10</t>
+  </si>
+  <si>
+    <t>mrD2$Y&amp;5</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>kjixUpDV</t>
-  </si>
-  <si>
-    <t>Mzrm</t>
+    <t>sgufOLrl</t>
+  </si>
+  <si>
+    <t>Ssjl</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>FkJUh993</t>
-  </si>
-  <si>
-    <t>qhonvob32</t>
-  </si>
-  <si>
-    <t>zh28!RD%</t>
-  </si>
-  <si>
-    <t>kDjuRTMy</t>
-  </si>
-  <si>
-    <t>Qfuf</t>
+    <t>WOfVH549</t>
+  </si>
+  <si>
+    <t>wxilozm91</t>
+  </si>
+  <si>
+    <t>dV$45!Cr</t>
+  </si>
+  <si>
+    <t>fyNmpqfB</t>
+  </si>
+  <si>
+    <t>nRKq</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231010297</v>
+        <v>231011213</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231010291</v>
+        <v>231011198</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>MZyLC487</t>
-  </si>
-  <si>
-    <t>atgqjmj10</t>
-  </si>
-  <si>
-    <t>mrD2$Y&amp;5</t>
+    <t>iIAHu292</t>
+  </si>
+  <si>
+    <t>mbkyjti20</t>
+  </si>
+  <si>
+    <t>f96$Ek!A</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>sgufOLrl</t>
-  </si>
-  <si>
-    <t>Ssjl</t>
+    <t>plrFDWTQ</t>
+  </si>
+  <si>
+    <t>Jjvw</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>WOfVH549</t>
-  </si>
-  <si>
-    <t>wxilozm91</t>
-  </si>
-  <si>
-    <t>dV$45!Cr</t>
-  </si>
-  <si>
-    <t>fyNmpqfB</t>
-  </si>
-  <si>
-    <t>nRKq</t>
+    <t>cePwf630</t>
+  </si>
+  <si>
+    <t>lyhikcp97</t>
+  </si>
+  <si>
+    <t>D!$zF8m9</t>
+  </si>
+  <si>
+    <t>PRmkaiUP</t>
+  </si>
+  <si>
+    <t>PhvR</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231011213</v>
+        <v>23101230</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231011198</v>
+        <v>23101229</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,40 +41,25 @@
     <t>Role</t>
   </si>
   <si>
-    <t>iIAHu292</t>
-  </si>
-  <si>
-    <t>mbkyjti20</t>
-  </si>
-  <si>
-    <t>f96$Ek!A</t>
+    <t>axkhA153</t>
+  </si>
+  <si>
+    <t>nwphlqq84</t>
+  </si>
+  <si>
+    <t>yu#&amp;KV68</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>plrFDWTQ</t>
-  </si>
-  <si>
-    <t>Jjvw</t>
+    <t>wmbavLmo</t>
+  </si>
+  <si>
+    <t>BZsr</t>
   </si>
   <si>
     <t>Candidate</t>
-  </si>
-  <si>
-    <t>cePwf630</t>
-  </si>
-  <si>
-    <t>lyhikcp97</t>
-  </si>
-  <si>
-    <t>D!$zF8m9</t>
-  </si>
-  <si>
-    <t>PRmkaiUP</t>
-  </si>
-  <si>
-    <t>PhvR</t>
   </si>
 </sst>
 </file>
@@ -442,10 +427,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H3"/>
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -481,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23101230</v>
+        <v>231016173</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -499,32 +484,6 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2">
-        <v>23101229</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,25 +41,55 @@
     <t>Role</t>
   </si>
   <si>
-    <t>axkhA153</t>
-  </si>
-  <si>
-    <t>nwphlqq84</t>
-  </si>
-  <si>
-    <t>yu#&amp;KV68</t>
+    <t>eilHw781</t>
+  </si>
+  <si>
+    <t>stubfxt98</t>
+  </si>
+  <si>
+    <t>PkT$26!x</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>wmbavLmo</t>
-  </si>
-  <si>
-    <t>BZsr</t>
+    <t>HqGPEIfK</t>
+  </si>
+  <si>
+    <t>Zkpf</t>
   </si>
   <si>
     <t>Candidate</t>
+  </si>
+  <si>
+    <t>kukFV955</t>
+  </si>
+  <si>
+    <t>wfsbkeg56</t>
+  </si>
+  <si>
+    <t>N9&amp;p6k#Z</t>
+  </si>
+  <si>
+    <t>ZudVdWmp</t>
+  </si>
+  <si>
+    <t>GvQr</t>
+  </si>
+  <si>
+    <t>HLknW522</t>
+  </si>
+  <si>
+    <t>mjjhtkq74</t>
+  </si>
+  <si>
+    <t>GSq4&amp;3!w</t>
+  </si>
+  <si>
+    <t>liQjBovl</t>
+  </si>
+  <si>
+    <t>yNkN</t>
   </si>
 </sst>
 </file>
@@ -427,10 +457,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="A1" sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231016173</v>
+        <v>23101743</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -484,6 +514,58 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>23101742</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>23101741</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,55 +41,55 @@
     <t>Role</t>
   </si>
   <si>
-    <t>eilHw781</t>
-  </si>
-  <si>
-    <t>stubfxt98</t>
-  </si>
-  <si>
-    <t>PkT$26!x</t>
+    <t>IjYJr159</t>
+  </si>
+  <si>
+    <t>kihysnc44</t>
+  </si>
+  <si>
+    <t>m$7%y4TU</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>HqGPEIfK</t>
-  </si>
-  <si>
-    <t>Zkpf</t>
+    <t>qLsJbtSe</t>
+  </si>
+  <si>
+    <t>uLAN</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>kukFV955</t>
-  </si>
-  <si>
-    <t>wfsbkeg56</t>
-  </si>
-  <si>
-    <t>N9&amp;p6k#Z</t>
-  </si>
-  <si>
-    <t>ZudVdWmp</t>
-  </si>
-  <si>
-    <t>GvQr</t>
-  </si>
-  <si>
-    <t>HLknW522</t>
-  </si>
-  <si>
-    <t>mjjhtkq74</t>
-  </si>
-  <si>
-    <t>GSq4&amp;3!w</t>
-  </si>
-  <si>
-    <t>liQjBovl</t>
-  </si>
-  <si>
-    <t>yNkN</t>
+    <t>EXPie593</t>
+  </si>
+  <si>
+    <t>hbczjvr56</t>
+  </si>
+  <si>
+    <t>jC9c!2%R</t>
+  </si>
+  <si>
+    <t>VKuUJqdx</t>
+  </si>
+  <si>
+    <t>EpZa</t>
+  </si>
+  <si>
+    <t>BabUp443</t>
+  </si>
+  <si>
+    <t>puwmncg75</t>
+  </si>
+  <si>
+    <t>jbA6&amp;7E!</t>
+  </si>
+  <si>
+    <t>JqThvmRL</t>
+  </si>
+  <si>
+    <t>TiMo</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23101743</v>
+        <v>23101809</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -522,7 +522,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>23101742</v>
+        <v>23101808</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -548,7 +548,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>23101741</v>
+        <v>23101807</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,55 +41,25 @@
     <t>Role</t>
   </si>
   <si>
-    <t>IjYJr159</t>
-  </si>
-  <si>
-    <t>kihysnc44</t>
-  </si>
-  <si>
-    <t>m$7%y4TU</t>
+    <t>AVETP651</t>
+  </si>
+  <si>
+    <t>vesdxjm16</t>
+  </si>
+  <si>
+    <t>D39fQg%#</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>qLsJbtSe</t>
-  </si>
-  <si>
-    <t>uLAN</t>
+    <t>qjsaBDOH</t>
+  </si>
+  <si>
+    <t>vTEE</t>
   </si>
   <si>
     <t>Candidate</t>
-  </si>
-  <si>
-    <t>EXPie593</t>
-  </si>
-  <si>
-    <t>hbczjvr56</t>
-  </si>
-  <si>
-    <t>jC9c!2%R</t>
-  </si>
-  <si>
-    <t>VKuUJqdx</t>
-  </si>
-  <si>
-    <t>EpZa</t>
-  </si>
-  <si>
-    <t>BabUp443</t>
-  </si>
-  <si>
-    <t>puwmncg75</t>
-  </si>
-  <si>
-    <t>jbA6&amp;7E!</t>
-  </si>
-  <si>
-    <t>JqThvmRL</t>
-  </si>
-  <si>
-    <t>TiMo</t>
   </si>
 </sst>
 </file>
@@ -457,10 +427,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23101809</v>
+        <v>23101918</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -514,58 +484,6 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2">
-        <v>23101808</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>23101807</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,22 +41,22 @@
     <t>Role</t>
   </si>
   <si>
-    <t>AVETP651</t>
-  </si>
-  <si>
-    <t>vesdxjm16</t>
-  </si>
-  <si>
-    <t>D39fQg%#</t>
+    <t>jTwOQ444</t>
+  </si>
+  <si>
+    <t>ngccdjv54</t>
+  </si>
+  <si>
+    <t>A&amp;$s4z5T</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>qjsaBDOH</t>
-  </si>
-  <si>
-    <t>vTEE</t>
+    <t>hFFCTWAM</t>
+  </si>
+  <si>
+    <t>pTFl</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23101918</v>
+        <v>23102030</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,22 +41,22 @@
     <t>Role</t>
   </si>
   <si>
-    <t>AVETP651</t>
-  </si>
-  <si>
-    <t>vesdxjm16</t>
-  </si>
-  <si>
-    <t>D39fQg%#</t>
+    <t>jMAkQ849</t>
+  </si>
+  <si>
+    <t>qdtflzf22</t>
+  </si>
+  <si>
+    <t>x!Sn5P7#</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>qjsaBDOH</t>
-  </si>
-  <si>
-    <t>vTEE</t>
+    <t>BsWeWEpS</t>
+  </si>
+  <si>
+    <t>WqxK</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23101918</v>
+        <v>23102507</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,22 +41,22 @@
     <t>Role</t>
   </si>
   <si>
-    <t>jMAkQ849</t>
-  </si>
-  <si>
-    <t>qdtflzf22</t>
-  </si>
-  <si>
-    <t>x!Sn5P7#</t>
+    <t>jTwOQ444</t>
+  </si>
+  <si>
+    <t>ngccdjv54</t>
+  </si>
+  <si>
+    <t>A&amp;$s4z5T</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>BsWeWEpS</t>
-  </si>
-  <si>
-    <t>WqxK</t>
+    <t>hFFCTWAM</t>
+  </si>
+  <si>
+    <t>pTFl</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23102507</v>
+        <v>23102030</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,22 +41,22 @@
     <t>Role</t>
   </si>
   <si>
-    <t>jTwOQ444</t>
-  </si>
-  <si>
-    <t>ngccdjv54</t>
-  </si>
-  <si>
-    <t>A&amp;$s4z5T</t>
+    <t>lSqbS113</t>
+  </si>
+  <si>
+    <t>lvocunc96</t>
+  </si>
+  <si>
+    <t>h4k%9WE&amp;</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>hFFCTWAM</t>
-  </si>
-  <si>
-    <t>pTFl</t>
+    <t>JNThQGbk</t>
+  </si>
+  <si>
+    <t>fCxn</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23102030</v>
+        <v>23103015</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,22 +41,22 @@
     <t>Role</t>
   </si>
   <si>
-    <t>jTwOQ444</t>
-  </si>
-  <si>
-    <t>ngccdjv54</t>
-  </si>
-  <si>
-    <t>A&amp;$s4z5T</t>
+    <t>wqgxm552</t>
+  </si>
+  <si>
+    <t>kgmhkvc53</t>
+  </si>
+  <si>
+    <t>m$5ZG9%b</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>hFFCTWAM</t>
-  </si>
-  <si>
-    <t>pTFl</t>
+    <t>YSeiLfel</t>
+  </si>
+  <si>
+    <t>iHCK</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23102030</v>
+        <v>23103082</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,22 +41,22 @@
     <t>Role</t>
   </si>
   <si>
-    <t>wqgxm552</t>
-  </si>
-  <si>
-    <t>kgmhkvc53</t>
-  </si>
-  <si>
-    <t>m$5ZG9%b</t>
+    <t>lSqbS113</t>
+  </si>
+  <si>
+    <t>lvocunc96</t>
+  </si>
+  <si>
+    <t>h4k%9WE&amp;</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>YSeiLfel</t>
-  </si>
-  <si>
-    <t>iHCK</t>
+    <t>JNThQGbk</t>
+  </si>
+  <si>
+    <t>fCxn</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23103082</v>
+        <v>23103015</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,25 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>lSqbS113</t>
-  </si>
-  <si>
-    <t>lvocunc96</t>
-  </si>
-  <si>
-    <t>h4k%9WE&amp;</t>
+    <t>kMbDP281</t>
+  </si>
+  <si>
+    <t>laexhox22</t>
+  </si>
+  <si>
+    <t>C38G%#ue</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>JNThQGbk</t>
-  </si>
-  <si>
-    <t>fCxn</t>
+    <t>iwDGCcab</t>
+  </si>
+  <si>
+    <t>wJIx</t>
   </si>
   <si>
     <t>Candidate</t>
+  </si>
+  <si>
+    <t>vTKHA409</t>
+  </si>
+  <si>
+    <t>dvnezzm45</t>
+  </si>
+  <si>
+    <t>H!2bpA5$</t>
+  </si>
+  <si>
+    <t>VpaXjqhf</t>
+  </si>
+  <si>
+    <t>dgkC</t>
   </si>
 </sst>
 </file>
@@ -427,10 +442,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="A1" sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23103015</v>
+        <v>231031248</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -484,6 +499,32 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>231031247</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,25 +41,535 @@
     <t>Role</t>
   </si>
   <si>
-    <t>lSqbS113</t>
-  </si>
-  <si>
-    <t>lvocunc96</t>
-  </si>
-  <si>
-    <t>h4k%9WE&amp;</t>
+    <t>WqMlk845</t>
+  </si>
+  <si>
+    <t>yhstgry62</t>
+  </si>
+  <si>
+    <t>uz8#5M!G</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>JNThQGbk</t>
-  </si>
-  <si>
-    <t>fCxn</t>
+    <t>ClFKccyo</t>
+  </si>
+  <si>
+    <t>dyxh</t>
   </si>
   <si>
     <t>Candidate</t>
+  </si>
+  <si>
+    <t>lZFpv496</t>
+  </si>
+  <si>
+    <t>wmbvapq52</t>
+  </si>
+  <si>
+    <t>K&amp;hq5R8%</t>
+  </si>
+  <si>
+    <t>NPsilziI</t>
+  </si>
+  <si>
+    <t>eHaY</t>
+  </si>
+  <si>
+    <t>cvsHR224</t>
+  </si>
+  <si>
+    <t>svrjytd21</t>
+  </si>
+  <si>
+    <t>G%F79!dq</t>
+  </si>
+  <si>
+    <t>DHEQkJVU</t>
+  </si>
+  <si>
+    <t>WRlk</t>
+  </si>
+  <si>
+    <t>xgSfY744</t>
+  </si>
+  <si>
+    <t>fglnfpw63</t>
+  </si>
+  <si>
+    <t>P$u7F9!e</t>
+  </si>
+  <si>
+    <t>iDXixnRk</t>
+  </si>
+  <si>
+    <t>EQBJ</t>
+  </si>
+  <si>
+    <t>WJdFR519</t>
+  </si>
+  <si>
+    <t>blynsky33</t>
+  </si>
+  <si>
+    <t>N$%4n7Yh</t>
+  </si>
+  <si>
+    <t>fnPWCCzw</t>
+  </si>
+  <si>
+    <t>WbHo</t>
+  </si>
+  <si>
+    <t>pkBbR223</t>
+  </si>
+  <si>
+    <t>siwmsjt96</t>
+  </si>
+  <si>
+    <t>bN6Yn$8&amp;</t>
+  </si>
+  <si>
+    <t>AUAbZpdS</t>
+  </si>
+  <si>
+    <t>LOEs</t>
+  </si>
+  <si>
+    <t>XQZsB226</t>
+  </si>
+  <si>
+    <t>aquejfg61</t>
+  </si>
+  <si>
+    <t>zsMG%!85</t>
+  </si>
+  <si>
+    <t>ydsLXzpO</t>
+  </si>
+  <si>
+    <t>KgcW</t>
+  </si>
+  <si>
+    <t>ItyZs482</t>
+  </si>
+  <si>
+    <t>qoerono63</t>
+  </si>
+  <si>
+    <t>HR!$z86v</t>
+  </si>
+  <si>
+    <t>gGsVchbF</t>
+  </si>
+  <si>
+    <t>svaD</t>
+  </si>
+  <si>
+    <t>nOSEe305</t>
+  </si>
+  <si>
+    <t>wojwqau70</t>
+  </si>
+  <si>
+    <t>nHy%2!8R</t>
+  </si>
+  <si>
+    <t>aaOQDKEf</t>
+  </si>
+  <si>
+    <t>uPTw</t>
+  </si>
+  <si>
+    <t>ywmrT362</t>
+  </si>
+  <si>
+    <t>yzkbznq94</t>
+  </si>
+  <si>
+    <t>D$h3Hb#8</t>
+  </si>
+  <si>
+    <t>gshZIWUq</t>
+  </si>
+  <si>
+    <t>obgL</t>
+  </si>
+  <si>
+    <t>ILXYB760</t>
+  </si>
+  <si>
+    <t>ycozqzx42</t>
+  </si>
+  <si>
+    <t>yC$W26q&amp;</t>
+  </si>
+  <si>
+    <t>IWAMsvCP</t>
+  </si>
+  <si>
+    <t>hJkd</t>
+  </si>
+  <si>
+    <t>lgSrf548</t>
+  </si>
+  <si>
+    <t>spxjqup90</t>
+  </si>
+  <si>
+    <t>z8%7#MtP</t>
+  </si>
+  <si>
+    <t>TTQsSogi</t>
+  </si>
+  <si>
+    <t>Fsjx</t>
+  </si>
+  <si>
+    <t>fzPbk682</t>
+  </si>
+  <si>
+    <t>ibcegcl36</t>
+  </si>
+  <si>
+    <t>c3%4$ZHb</t>
+  </si>
+  <si>
+    <t>sFyTovBa</t>
+  </si>
+  <si>
+    <t>CWIq</t>
+  </si>
+  <si>
+    <t>zOGDR934</t>
+  </si>
+  <si>
+    <t>jnhzrry63</t>
+  </si>
+  <si>
+    <t>jR$&amp;Pf32</t>
+  </si>
+  <si>
+    <t>MDtUhiZv</t>
+  </si>
+  <si>
+    <t>KctV</t>
+  </si>
+  <si>
+    <t>sEDxJ640</t>
+  </si>
+  <si>
+    <t>omnvryc78</t>
+  </si>
+  <si>
+    <t>adV8&amp;$3J</t>
+  </si>
+  <si>
+    <t>ZeEtQiEx</t>
+  </si>
+  <si>
+    <t>PUpb</t>
+  </si>
+  <si>
+    <t>vzFnp417</t>
+  </si>
+  <si>
+    <t>btppvxg12</t>
+  </si>
+  <si>
+    <t>Gq36D!s%</t>
+  </si>
+  <si>
+    <t>GUZPqsnt</t>
+  </si>
+  <si>
+    <t>EPuQ</t>
+  </si>
+  <si>
+    <t>cIyOa348</t>
+  </si>
+  <si>
+    <t>sfyzgyx14</t>
+  </si>
+  <si>
+    <t>E4b9s%V#</t>
+  </si>
+  <si>
+    <t>JFFavvPy</t>
+  </si>
+  <si>
+    <t>aJCh</t>
+  </si>
+  <si>
+    <t>uaNuU276</t>
+  </si>
+  <si>
+    <t>wxsjifn83</t>
+  </si>
+  <si>
+    <t>DrR39b!$</t>
+  </si>
+  <si>
+    <t>yqkwChiL</t>
+  </si>
+  <si>
+    <t>zRfC</t>
+  </si>
+  <si>
+    <t>pgIYE994</t>
+  </si>
+  <si>
+    <t>doginlp76</t>
+  </si>
+  <si>
+    <t>r84bU!$M</t>
+  </si>
+  <si>
+    <t>xLMsOxHa</t>
+  </si>
+  <si>
+    <t>Ygkn</t>
+  </si>
+  <si>
+    <t>HVqiS347</t>
+  </si>
+  <si>
+    <t>hqhsujt50</t>
+  </si>
+  <si>
+    <t>ySW%#86e</t>
+  </si>
+  <si>
+    <t>VhNdufDB</t>
+  </si>
+  <si>
+    <t>BXXC</t>
+  </si>
+  <si>
+    <t>eTSps749</t>
+  </si>
+  <si>
+    <t>ytdlhks80</t>
+  </si>
+  <si>
+    <t>fd6UB&amp;%8</t>
+  </si>
+  <si>
+    <t>zpgPhKnW</t>
+  </si>
+  <si>
+    <t>zPuk</t>
+  </si>
+  <si>
+    <t>hdbwg659</t>
+  </si>
+  <si>
+    <t>xyfvizj55</t>
+  </si>
+  <si>
+    <t>w2E$&amp;Cb8</t>
+  </si>
+  <si>
+    <t>XmaRfFto</t>
+  </si>
+  <si>
+    <t>AQGY</t>
+  </si>
+  <si>
+    <t>ZeDeT505</t>
+  </si>
+  <si>
+    <t>mcgrftm13</t>
+  </si>
+  <si>
+    <t>S#v%57Wd</t>
+  </si>
+  <si>
+    <t>oVgEsKVX</t>
+  </si>
+  <si>
+    <t>gQxv</t>
+  </si>
+  <si>
+    <t>omJiq634</t>
+  </si>
+  <si>
+    <t>xikxlfn38</t>
+  </si>
+  <si>
+    <t>N6$Aut!3</t>
+  </si>
+  <si>
+    <t>bdKYuEpu</t>
+  </si>
+  <si>
+    <t>WVXf</t>
+  </si>
+  <si>
+    <t>NsnTJ398</t>
+  </si>
+  <si>
+    <t>ffortec21</t>
+  </si>
+  <si>
+    <t>t$7ZX&amp;s6</t>
+  </si>
+  <si>
+    <t>UYAFeSYU</t>
+  </si>
+  <si>
+    <t>iEOw</t>
+  </si>
+  <si>
+    <t>xLzcJ873</t>
+  </si>
+  <si>
+    <t>rvmfhbh66</t>
+  </si>
+  <si>
+    <t>s6#gA%F7</t>
+  </si>
+  <si>
+    <t>qoZFBvOZ</t>
+  </si>
+  <si>
+    <t>ySur</t>
+  </si>
+  <si>
+    <t>GywZl964</t>
+  </si>
+  <si>
+    <t>wnasutt36</t>
+  </si>
+  <si>
+    <t>C6ad$R%8</t>
+  </si>
+  <si>
+    <t>NXNVrCYs</t>
+  </si>
+  <si>
+    <t>cobX</t>
+  </si>
+  <si>
+    <t>JOwZh682</t>
+  </si>
+  <si>
+    <t>fcfbojo57</t>
+  </si>
+  <si>
+    <t>e43Cj$!X</t>
+  </si>
+  <si>
+    <t>wpCYgrnk</t>
+  </si>
+  <si>
+    <t>lOgn</t>
+  </si>
+  <si>
+    <t>dyyIF357</t>
+  </si>
+  <si>
+    <t>hsqnolm77</t>
+  </si>
+  <si>
+    <t>u#A%k34V</t>
+  </si>
+  <si>
+    <t>BHnRdhRh</t>
+  </si>
+  <si>
+    <t>Tiyf</t>
+  </si>
+  <si>
+    <t>iMKeu436</t>
+  </si>
+  <si>
+    <t>tqdfdjh43</t>
+  </si>
+  <si>
+    <t>d74sD&amp;U%</t>
+  </si>
+  <si>
+    <t>aHaOAaQv</t>
+  </si>
+  <si>
+    <t>WiZK</t>
+  </si>
+  <si>
+    <t>jjufz406</t>
+  </si>
+  <si>
+    <t>ccnhjax89</t>
+  </si>
+  <si>
+    <t>rFg4Y#2!</t>
+  </si>
+  <si>
+    <t>PaCYrIYk</t>
+  </si>
+  <si>
+    <t>egep</t>
+  </si>
+  <si>
+    <t>vfgPa457</t>
+  </si>
+  <si>
+    <t>rbrlzkt85</t>
+  </si>
+  <si>
+    <t>S#w3aZ!4</t>
+  </si>
+  <si>
+    <t>UpjJamqZ</t>
+  </si>
+  <si>
+    <t>XTbZ</t>
+  </si>
+  <si>
+    <t>MRdhO538</t>
+  </si>
+  <si>
+    <t>emaeudp68</t>
+  </si>
+  <si>
+    <t>M!xa&amp;2E5</t>
+  </si>
+  <si>
+    <t>JrFxMoYd</t>
+  </si>
+  <si>
+    <t>qzON</t>
+  </si>
+  <si>
+    <t>sVRgW464</t>
+  </si>
+  <si>
+    <t>zzqqxat57</t>
+  </si>
+  <si>
+    <t>J!$Q5ty7</t>
+  </si>
+  <si>
+    <t>plZjafHY</t>
+  </si>
+  <si>
+    <t>tSIB</t>
+  </si>
+  <si>
+    <t>AWioY781</t>
+  </si>
+  <si>
+    <t>odyiouw40</t>
+  </si>
+  <si>
+    <t>hN2v!$Z7</t>
+  </si>
+  <si>
+    <t>BYMbTnus</t>
+  </si>
+  <si>
+    <t>lFpc</t>
   </si>
 </sst>
 </file>
@@ -427,10 +937,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="A1" sqref="A1:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,7 +976,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23103015</v>
+        <v>231102225</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -484,6 +994,890 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>231102224</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>231102223</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>231102222</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>231102221</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>231102220</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <v>231102219</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>231102218</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>231102217</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>231102216</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>231102215</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>231102214</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2">
+        <v>231102213</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>231102212</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2">
+        <v>231102211</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2">
+        <v>231102210</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2">
+        <v>231102209</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="2">
+        <v>231102208</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2">
+        <v>231102207</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="2">
+        <v>231102206</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="2">
+        <v>231102205</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2">
+        <v>231102204</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="2">
+        <v>231102203</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="2">
+        <v>231102202</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="2">
+        <v>231102201</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="2">
+        <v>231102200</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="2">
+        <v>231102199</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="2">
+        <v>231102198</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="2">
+        <v>231102197</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="2">
+        <v>231102196</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="2">
+        <v>231102195</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="2">
+        <v>231102194</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="2">
+        <v>231102193</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="2">
+        <v>231102192</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="2">
+        <v>231102191</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,40 +41,55 @@
     <t>Role</t>
   </si>
   <si>
-    <t>kMbDP281</t>
-  </si>
-  <si>
-    <t>laexhox22</t>
-  </si>
-  <si>
-    <t>C38G%#ue</t>
+    <t>CBbjo678</t>
+  </si>
+  <si>
+    <t>zwunmrs87</t>
+  </si>
+  <si>
+    <t>s!36a%ZW</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>iwDGCcab</t>
-  </si>
-  <si>
-    <t>wJIx</t>
+    <t>HhEBRHnF</t>
+  </si>
+  <si>
+    <t>poJU</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>vTKHA409</t>
-  </si>
-  <si>
-    <t>dvnezzm45</t>
-  </si>
-  <si>
-    <t>H!2bpA5$</t>
-  </si>
-  <si>
-    <t>VpaXjqhf</t>
-  </si>
-  <si>
-    <t>dgkC</t>
+    <t>GGdEM576</t>
+  </si>
+  <si>
+    <t>zaljudy79</t>
+  </si>
+  <si>
+    <t>VM!vw&amp;79</t>
+  </si>
+  <si>
+    <t>ePKLMzjd</t>
+  </si>
+  <si>
+    <t>Ivjd</t>
+  </si>
+  <si>
+    <t>hHnMu113</t>
+  </si>
+  <si>
+    <t>betqcob60</t>
+  </si>
+  <si>
+    <t>TgH!8w5$</t>
+  </si>
+  <si>
+    <t>NOGXBHgS</t>
+  </si>
+  <si>
+    <t>oZoA</t>
   </si>
 </sst>
 </file>
@@ -442,10 +457,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H3"/>
+      <selection activeCell="A1" sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -481,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231031248</v>
+        <v>23110207</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +522,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231031247</v>
+        <v>23110206</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -525,6 +540,32 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>23110205</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,55 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>CBbjo678</t>
-  </si>
-  <si>
-    <t>zwunmrs87</t>
-  </si>
-  <si>
-    <t>s!36a%ZW</t>
+    <t>tkgxd606</t>
+  </si>
+  <si>
+    <t>tqkcspf37</t>
+  </si>
+  <si>
+    <t>k7N%4pK#</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>HhEBRHnF</t>
-  </si>
-  <si>
-    <t>poJU</t>
+    <t>mhwnzeye</t>
+  </si>
+  <si>
+    <t>jwJj</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>GGdEM576</t>
-  </si>
-  <si>
-    <t>zaljudy79</t>
-  </si>
-  <si>
-    <t>VM!vw&amp;79</t>
-  </si>
-  <si>
-    <t>ePKLMzjd</t>
-  </si>
-  <si>
-    <t>Ivjd</t>
-  </si>
-  <si>
-    <t>hHnMu113</t>
-  </si>
-  <si>
-    <t>betqcob60</t>
-  </si>
-  <si>
-    <t>TgH!8w5$</t>
-  </si>
-  <si>
-    <t>NOGXBHgS</t>
-  </si>
-  <si>
-    <t>oZoA</t>
+    <t>iQfzV439</t>
+  </si>
+  <si>
+    <t>fnshaop75</t>
+  </si>
+  <si>
+    <t>v&amp;7f5%SK</t>
+  </si>
+  <si>
+    <t>KIKeefPY</t>
+  </si>
+  <si>
+    <t>nfuU</t>
   </si>
 </sst>
 </file>
@@ -457,10 +442,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="A1" sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23110207</v>
+        <v>231103127</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -522,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>23110206</v>
+        <v>231103126</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -540,32 +525,6 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>23110205</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,55 +41,55 @@
     <t>Role</t>
   </si>
   <si>
-    <t>CBbjo678</t>
-  </si>
-  <si>
-    <t>zwunmrs87</t>
-  </si>
-  <si>
-    <t>s!36a%ZW</t>
+    <t>rwEac954</t>
+  </si>
+  <si>
+    <t>mcjpkik97</t>
+  </si>
+  <si>
+    <t>zyH$#V85</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>HhEBRHnF</t>
-  </si>
-  <si>
-    <t>poJU</t>
+    <t>gOQrfKSa</t>
+  </si>
+  <si>
+    <t>HKNd</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>GGdEM576</t>
-  </si>
-  <si>
-    <t>zaljudy79</t>
-  </si>
-  <si>
-    <t>VM!vw&amp;79</t>
-  </si>
-  <si>
-    <t>ePKLMzjd</t>
-  </si>
-  <si>
-    <t>Ivjd</t>
-  </si>
-  <si>
-    <t>hHnMu113</t>
-  </si>
-  <si>
-    <t>betqcob60</t>
-  </si>
-  <si>
-    <t>TgH!8w5$</t>
-  </si>
-  <si>
-    <t>NOGXBHgS</t>
-  </si>
-  <si>
-    <t>oZoA</t>
+    <t>yduIu918</t>
+  </si>
+  <si>
+    <t>zsazmox88</t>
+  </si>
+  <si>
+    <t>Vs2T#6b$</t>
+  </si>
+  <si>
+    <t>HafZXSaF</t>
+  </si>
+  <si>
+    <t>tOKJ</t>
+  </si>
+  <si>
+    <t>PFUFu512</t>
+  </si>
+  <si>
+    <t>dbxhczi18</t>
+  </si>
+  <si>
+    <t>S&amp;kK%e97</t>
+  </si>
+  <si>
+    <t>qhBmTjfc</t>
+  </si>
+  <si>
+    <t>MVSF</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23110207</v>
+        <v>23110323</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -522,7 +522,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>23110206</v>
+        <v>23110322</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -548,7 +548,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>23110205</v>
+        <v>23110321</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,55 +41,55 @@
     <t>Role</t>
   </si>
   <si>
-    <t>CBbjo678</t>
-  </si>
-  <si>
-    <t>zwunmrs87</t>
-  </si>
-  <si>
-    <t>s!36a%ZW</t>
+    <t>CghVf808</t>
+  </si>
+  <si>
+    <t>sgbfgjw24</t>
+  </si>
+  <si>
+    <t>u!W%5P4v</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>HhEBRHnF</t>
-  </si>
-  <si>
-    <t>poJU</t>
+    <t>jBgVYOnE</t>
+  </si>
+  <si>
+    <t>YMtq</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>GGdEM576</t>
-  </si>
-  <si>
-    <t>zaljudy79</t>
-  </si>
-  <si>
-    <t>VM!vw&amp;79</t>
-  </si>
-  <si>
-    <t>ePKLMzjd</t>
-  </si>
-  <si>
-    <t>Ivjd</t>
-  </si>
-  <si>
-    <t>hHnMu113</t>
-  </si>
-  <si>
-    <t>betqcob60</t>
-  </si>
-  <si>
-    <t>TgH!8w5$</t>
-  </si>
-  <si>
-    <t>NOGXBHgS</t>
-  </si>
-  <si>
-    <t>oZoA</t>
+    <t>zwnQT970</t>
+  </si>
+  <si>
+    <t>ytetdcn27</t>
+  </si>
+  <si>
+    <t>X#ue67E!</t>
+  </si>
+  <si>
+    <t>ioqSJOfK</t>
+  </si>
+  <si>
+    <t>rVoh</t>
+  </si>
+  <si>
+    <t>dbunr222</t>
+  </si>
+  <si>
+    <t>rqzogkd85</t>
+  </si>
+  <si>
+    <t>f!%9Dq4A</t>
+  </si>
+  <si>
+    <t>dmnFKVTh</t>
+  </si>
+  <si>
+    <t>jdNl</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23110207</v>
+        <v>231103130</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -522,7 +522,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>23110206</v>
+        <v>231103129</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -548,7 +548,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>23110205</v>
+        <v>231103128</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,55 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>CghVf808</t>
-  </si>
-  <si>
-    <t>sgbfgjw24</t>
-  </si>
-  <si>
-    <t>u!W%5P4v</t>
+    <t>tkgxd606</t>
+  </si>
+  <si>
+    <t>tqkcspf37</t>
+  </si>
+  <si>
+    <t>k7N%4pK#</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>jBgVYOnE</t>
-  </si>
-  <si>
-    <t>YMtq</t>
+    <t>mhwnzeye</t>
+  </si>
+  <si>
+    <t>jwJj</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>zwnQT970</t>
-  </si>
-  <si>
-    <t>ytetdcn27</t>
-  </si>
-  <si>
-    <t>X#ue67E!</t>
-  </si>
-  <si>
-    <t>ioqSJOfK</t>
-  </si>
-  <si>
-    <t>rVoh</t>
-  </si>
-  <si>
-    <t>dbunr222</t>
-  </si>
-  <si>
-    <t>rqzogkd85</t>
-  </si>
-  <si>
-    <t>f!%9Dq4A</t>
-  </si>
-  <si>
-    <t>dmnFKVTh</t>
-  </si>
-  <si>
-    <t>jdNl</t>
+    <t>iQfzV439</t>
+  </si>
+  <si>
+    <t>fnshaop75</t>
+  </si>
+  <si>
+    <t>v&amp;7f5%SK</t>
+  </si>
+  <si>
+    <t>KIKeefPY</t>
+  </si>
+  <si>
+    <t>nfuU</t>
   </si>
 </sst>
 </file>
@@ -457,10 +442,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="A1" sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231103130</v>
+        <v>231103127</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -522,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231103129</v>
+        <v>231103126</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -540,32 +525,6 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>231103128</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>tkgxd606</t>
-  </si>
-  <si>
-    <t>tqkcspf37</t>
-  </si>
-  <si>
-    <t>k7N%4pK#</t>
+    <t>WbfuR431</t>
+  </si>
+  <si>
+    <t>nhauqon87</t>
+  </si>
+  <si>
+    <t>e38#VvE$</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>mhwnzeye</t>
-  </si>
-  <si>
-    <t>jwJj</t>
+    <t>ldhwuJFq</t>
+  </si>
+  <si>
+    <t>fnJC</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>iQfzV439</t>
-  </si>
-  <si>
-    <t>fnshaop75</t>
-  </si>
-  <si>
-    <t>v&amp;7f5%SK</t>
-  </si>
-  <si>
-    <t>KIKeefPY</t>
-  </si>
-  <si>
-    <t>nfuU</t>
+    <t>Kjyvo596</t>
+  </si>
+  <si>
+    <t>njfvoeq85</t>
+  </si>
+  <si>
+    <t>C9nh$2%A</t>
+  </si>
+  <si>
+    <t>aHYKTxAE</t>
+  </si>
+  <si>
+    <t>mruj</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231103127</v>
+        <v>231106302</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231103126</v>
+        <v>231106301</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>tkgxd606</t>
-  </si>
-  <si>
-    <t>tqkcspf37</t>
-  </si>
-  <si>
-    <t>k7N%4pK#</t>
+    <t>dMubi476</t>
+  </si>
+  <si>
+    <t>xmnhxnm60</t>
+  </si>
+  <si>
+    <t>HX&amp;!43wv</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>mhwnzeye</t>
-  </si>
-  <si>
-    <t>jwJj</t>
+    <t>vItZBynr</t>
+  </si>
+  <si>
+    <t>SWms</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>iQfzV439</t>
-  </si>
-  <si>
-    <t>fnshaop75</t>
-  </si>
-  <si>
-    <t>v&amp;7f5%SK</t>
-  </si>
-  <si>
-    <t>KIKeefPY</t>
-  </si>
-  <si>
-    <t>nfuU</t>
+    <t>OWpYN334</t>
+  </si>
+  <si>
+    <t>bykekoz48</t>
+  </si>
+  <si>
+    <t>FGd5%k6#</t>
+  </si>
+  <si>
+    <t>KyFKAOPa</t>
+  </si>
+  <si>
+    <t>shAo</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231103127</v>
+        <v>231106318</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231103126</v>
+        <v>231106317</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,40 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>dMubi476</t>
-  </si>
-  <si>
-    <t>xmnhxnm60</t>
-  </si>
-  <si>
-    <t>HX&amp;!43wv</t>
+    <t>WbfuR431</t>
+  </si>
+  <si>
+    <t>nhauqon87</t>
+  </si>
+  <si>
+    <t>e38#VvE$</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>vItZBynr</t>
-  </si>
-  <si>
-    <t>SWms</t>
+    <t>ldhwuJFq</t>
+  </si>
+  <si>
+    <t>fnJC</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>OWpYN334</t>
-  </si>
-  <si>
-    <t>bykekoz48</t>
-  </si>
-  <si>
-    <t>FGd5%k6#</t>
-  </si>
-  <si>
-    <t>KyFKAOPa</t>
-  </si>
-  <si>
-    <t>shAo</t>
+    <t>Kjyvo596</t>
+  </si>
+  <si>
+    <t>njfvoeq85</t>
+  </si>
+  <si>
+    <t>C9nh$2%A</t>
+  </si>
+  <si>
+    <t>aHYKTxAE</t>
+  </si>
+  <si>
+    <t>mruj</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231106318</v>
+        <v>231106302</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231106317</v>
+        <v>231106301</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,40 +41,25 @@
     <t>Role</t>
   </si>
   <si>
-    <t>WbfuR431</t>
-  </si>
-  <si>
-    <t>nhauqon87</t>
-  </si>
-  <si>
-    <t>e38#VvE$</t>
+    <t>AwKRq766</t>
+  </si>
+  <si>
+    <t>bqetuen38</t>
+  </si>
+  <si>
+    <t>M$mY23!e</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>ldhwuJFq</t>
-  </si>
-  <si>
-    <t>fnJC</t>
+    <t>BPtatTwQ</t>
+  </si>
+  <si>
+    <t>cjMy</t>
   </si>
   <si>
     <t>Candidate</t>
-  </si>
-  <si>
-    <t>Kjyvo596</t>
-  </si>
-  <si>
-    <t>njfvoeq85</t>
-  </si>
-  <si>
-    <t>C9nh$2%A</t>
-  </si>
-  <si>
-    <t>aHYKTxAE</t>
-  </si>
-  <si>
-    <t>mruj</t>
   </si>
 </sst>
 </file>
@@ -442,10 +427,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H3"/>
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -481,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231106302</v>
+        <v>23110739</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -499,32 +484,6 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2">
-        <v>231106301</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,40 +41,55 @@
     <t>Role</t>
   </si>
   <si>
-    <t>WbfuR431</t>
-  </si>
-  <si>
-    <t>nhauqon87</t>
-  </si>
-  <si>
-    <t>e38#VvE$</t>
+    <t>UJLnj648</t>
+  </si>
+  <si>
+    <t>usomuin80</t>
+  </si>
+  <si>
+    <t>u#A74V!n</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>ldhwuJFq</t>
-  </si>
-  <si>
-    <t>fnJC</t>
+    <t>XCqBUXBb</t>
+  </si>
+  <si>
+    <t>NJae</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>Kjyvo596</t>
-  </si>
-  <si>
-    <t>njfvoeq85</t>
-  </si>
-  <si>
-    <t>C9nh$2%A</t>
-  </si>
-  <si>
-    <t>aHYKTxAE</t>
-  </si>
-  <si>
-    <t>mruj</t>
+    <t>opEDi265</t>
+  </si>
+  <si>
+    <t>pptaghb76</t>
+  </si>
+  <si>
+    <t>eTC7u&amp;2$</t>
+  </si>
+  <si>
+    <t>ENpBoHRd</t>
+  </si>
+  <si>
+    <t>dFMq</t>
+  </si>
+  <si>
+    <t>GaiRe814</t>
+  </si>
+  <si>
+    <t>fafepfu81</t>
+  </si>
+  <si>
+    <t>c7C9N!#p</t>
+  </si>
+  <si>
+    <t>OBLxNjot</t>
+  </si>
+  <si>
+    <t>gZgz</t>
   </si>
 </sst>
 </file>
@@ -442,10 +457,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H3"/>
+      <selection activeCell="A1" sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -481,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231106302</v>
+        <v>23110820</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -507,7 +522,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231106301</v>
+        <v>23110819</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -525,6 +540,32 @@
         <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>23110818</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,55 +41,25 @@
     <t>Role</t>
   </si>
   <si>
-    <t>UJLnj648</t>
-  </si>
-  <si>
-    <t>usomuin80</t>
-  </si>
-  <si>
-    <t>u#A74V!n</t>
+    <t>AwKRq766</t>
+  </si>
+  <si>
+    <t>bqetuen38</t>
+  </si>
+  <si>
+    <t>M$mY23!e</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>XCqBUXBb</t>
-  </si>
-  <si>
-    <t>NJae</t>
+    <t>BPtatTwQ</t>
+  </si>
+  <si>
+    <t>cjMy</t>
   </si>
   <si>
     <t>Candidate</t>
-  </si>
-  <si>
-    <t>opEDi265</t>
-  </si>
-  <si>
-    <t>pptaghb76</t>
-  </si>
-  <si>
-    <t>eTC7u&amp;2$</t>
-  </si>
-  <si>
-    <t>ENpBoHRd</t>
-  </si>
-  <si>
-    <t>dFMq</t>
-  </si>
-  <si>
-    <t>GaiRe814</t>
-  </si>
-  <si>
-    <t>fafepfu81</t>
-  </si>
-  <si>
-    <t>c7C9N!#p</t>
-  </si>
-  <si>
-    <t>OBLxNjot</t>
-  </si>
-  <si>
-    <t>gZgz</t>
   </si>
 </sst>
 </file>
@@ -457,10 +427,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H4"/>
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -496,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23110820</v>
+        <v>23110739</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -514,58 +484,6 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2">
-        <v>23110819</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>23110818</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,25 +41,40 @@
     <t>Role</t>
   </si>
   <si>
-    <t>AwKRq766</t>
-  </si>
-  <si>
-    <t>bqetuen38</t>
-  </si>
-  <si>
-    <t>M$mY23!e</t>
+    <t>wiGka687</t>
+  </si>
+  <si>
+    <t>mciswee13</t>
+  </si>
+  <si>
+    <t>S$e5w%V9</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>BPtatTwQ</t>
-  </si>
-  <si>
-    <t>cjMy</t>
+    <t>zpFXWIVn</t>
+  </si>
+  <si>
+    <t>RVgJ</t>
   </si>
   <si>
     <t>Candidate</t>
+  </si>
+  <si>
+    <t>iRiaL673</t>
+  </si>
+  <si>
+    <t>zwqhjhs73</t>
+  </si>
+  <si>
+    <t>X#4meH2$</t>
+  </si>
+  <si>
+    <t>psabtdSX</t>
+  </si>
+  <si>
+    <t>TVAM</t>
   </si>
 </sst>
 </file>
@@ -427,10 +442,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="A1" sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23110739</v>
+        <v>23110861</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -484,6 +499,32 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>23110860</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,40 +41,301 @@
     <t>Role</t>
   </si>
   <si>
-    <t>wiGka687</t>
-  </si>
-  <si>
-    <t>mciswee13</t>
-  </si>
-  <si>
-    <t>S$e5w%V9</t>
+    <t>CIO12032</t>
+  </si>
+  <si>
+    <t>candidatepfm12032</t>
+  </si>
+  <si>
+    <t>Elumina@154</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>zpFXWIVn</t>
-  </si>
-  <si>
-    <t>RVgJ</t>
-  </si>
-  <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>iRiaL673</t>
-  </si>
-  <si>
-    <t>zwqhjhs73</t>
-  </si>
-  <si>
-    <t>X#4meH2$</t>
-  </si>
-  <si>
-    <t>psabtdSX</t>
-  </si>
-  <si>
-    <t>TVAM</t>
+    <t>PFTMM</t>
+  </si>
+  <si>
+    <t>CIO12031</t>
+  </si>
+  <si>
+    <t>candidatepfm12031</t>
+  </si>
+  <si>
+    <t>Elumina@153</t>
+  </si>
+  <si>
+    <t>CIO12030</t>
+  </si>
+  <si>
+    <t>candidatepfm12030</t>
+  </si>
+  <si>
+    <t>Elumina@152</t>
+  </si>
+  <si>
+    <t>CIO12029</t>
+  </si>
+  <si>
+    <t>candidatepfm12029</t>
+  </si>
+  <si>
+    <t>Elumina@151</t>
+  </si>
+  <si>
+    <t>CIO12028</t>
+  </si>
+  <si>
+    <t>candidatepfm12028</t>
+  </si>
+  <si>
+    <t>Elumina@150</t>
+  </si>
+  <si>
+    <t>CIO12027</t>
+  </si>
+  <si>
+    <t>candidatepfm12027</t>
+  </si>
+  <si>
+    <t>Elumina@149</t>
+  </si>
+  <si>
+    <t>CIO12026</t>
+  </si>
+  <si>
+    <t>candidatepfm12026</t>
+  </si>
+  <si>
+    <t>Elumina@148</t>
+  </si>
+  <si>
+    <t>CIO12025</t>
+  </si>
+  <si>
+    <t>candidatepfm12025</t>
+  </si>
+  <si>
+    <t>Elumina@147</t>
+  </si>
+  <si>
+    <t>CIO12024</t>
+  </si>
+  <si>
+    <t>candidatepfm12024</t>
+  </si>
+  <si>
+    <t>Elumina@146</t>
+  </si>
+  <si>
+    <t>CIO12023</t>
+  </si>
+  <si>
+    <t>candidatepfm12023</t>
+  </si>
+  <si>
+    <t>Elumina@145</t>
+  </si>
+  <si>
+    <t>CIO12022</t>
+  </si>
+  <si>
+    <t>candidatepfm12022</t>
+  </si>
+  <si>
+    <t>Elumina@144</t>
+  </si>
+  <si>
+    <t>CIO12021</t>
+  </si>
+  <si>
+    <t>candidatepfm12021</t>
+  </si>
+  <si>
+    <t>Elumina@143</t>
+  </si>
+  <si>
+    <t>CIO12020</t>
+  </si>
+  <si>
+    <t>candidatepfm12020</t>
+  </si>
+  <si>
+    <t>Elumina@142</t>
+  </si>
+  <si>
+    <t>CIO12019</t>
+  </si>
+  <si>
+    <t>candidatepfm12019</t>
+  </si>
+  <si>
+    <t>Elumina@141</t>
+  </si>
+  <si>
+    <t>CIO12018</t>
+  </si>
+  <si>
+    <t>candidatepfm12018</t>
+  </si>
+  <si>
+    <t>Elumina@140</t>
+  </si>
+  <si>
+    <t>CIO12017</t>
+  </si>
+  <si>
+    <t>candidatepfm12017</t>
+  </si>
+  <si>
+    <t>Elumina@139</t>
+  </si>
+  <si>
+    <t>CIO12016</t>
+  </si>
+  <si>
+    <t>candidatepfm12016</t>
+  </si>
+  <si>
+    <t>Elumina@138</t>
+  </si>
+  <si>
+    <t>CIO12015</t>
+  </si>
+  <si>
+    <t>candidatepfm12015</t>
+  </si>
+  <si>
+    <t>Elumina@137</t>
+  </si>
+  <si>
+    <t>CIO12014</t>
+  </si>
+  <si>
+    <t>candidatepfm12014</t>
+  </si>
+  <si>
+    <t>Elumina@136</t>
+  </si>
+  <si>
+    <t>CIO12013</t>
+  </si>
+  <si>
+    <t>candidatepfm12013</t>
+  </si>
+  <si>
+    <t>Elumina@135</t>
+  </si>
+  <si>
+    <t>CIO12012</t>
+  </si>
+  <si>
+    <t>candidatepfm12012</t>
+  </si>
+  <si>
+    <t>Elumina@134</t>
+  </si>
+  <si>
+    <t>CIO12011</t>
+  </si>
+  <si>
+    <t>candidatepfm12011</t>
+  </si>
+  <si>
+    <t>Elumina@133</t>
+  </si>
+  <si>
+    <t>CIO12010</t>
+  </si>
+  <si>
+    <t>candidatepfm12010</t>
+  </si>
+  <si>
+    <t>Elumina@132</t>
+  </si>
+  <si>
+    <t>CIO12009</t>
+  </si>
+  <si>
+    <t>candidatepfm12009</t>
+  </si>
+  <si>
+    <t>Elumina@131</t>
+  </si>
+  <si>
+    <t>CIO12008</t>
+  </si>
+  <si>
+    <t>candidatepfm12008</t>
+  </si>
+  <si>
+    <t>Elumina@130</t>
+  </si>
+  <si>
+    <t>CIO12007</t>
+  </si>
+  <si>
+    <t>candidatepfm12007</t>
+  </si>
+  <si>
+    <t>Elumina@129</t>
+  </si>
+  <si>
+    <t>CIO12006</t>
+  </si>
+  <si>
+    <t>candidatepfm12006</t>
+  </si>
+  <si>
+    <t>Elumina@128</t>
+  </si>
+  <si>
+    <t>CIO12005</t>
+  </si>
+  <si>
+    <t>candidatepfm12005</t>
+  </si>
+  <si>
+    <t>Elumina@127</t>
+  </si>
+  <si>
+    <t>CIO12004</t>
+  </si>
+  <si>
+    <t>candidatepfm12004</t>
+  </si>
+  <si>
+    <t>Elumina@126</t>
+  </si>
+  <si>
+    <t>CIO12003</t>
+  </si>
+  <si>
+    <t>candidatepfm12003</t>
+  </si>
+  <si>
+    <t>Elumina@125</t>
+  </si>
+  <si>
+    <t>CIO12002</t>
+  </si>
+  <si>
+    <t>candidatepfm12002</t>
+  </si>
+  <si>
+    <t>Elumina@124</t>
+  </si>
+  <si>
+    <t>CIO12001</t>
+  </si>
+  <si>
+    <t>candidatepfm12001</t>
+  </si>
+  <si>
+    <t>Elumina@123</t>
   </si>
 </sst>
 </file>
@@ -442,10 +703,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H3"/>
+      <selection activeCell="A1" sqref="A1:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -481,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23110861</v>
+        <v>20123176</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -499,33 +760,813 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20123175</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2">
-        <v>23110860</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="B4" s="2">
+        <v>20123174</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20123173</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20123172</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20123171</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20123170</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20123169</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20123168</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20123167</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20123166</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>20123165</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20123164</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20123163</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2">
+        <v>20123162</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2">
+        <v>20123161</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20123160</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2">
+        <v>20123159</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="2">
+        <v>20123158</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20123157</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="2">
+        <v>20123156</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="2">
+        <v>20123155</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="2">
+        <v>20123154</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="2">
+        <v>20123153</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="2">
+        <v>20123152</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="2">
+        <v>20123151</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="2">
+        <v>20123150</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="2">
+        <v>20123149</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="2">
+        <v>20123148</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="2">
+        <v>20123147</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="2">
+        <v>20123146</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2">
+        <v>20123145</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,40 +41,25 @@
     <t>Role</t>
   </si>
   <si>
-    <t>wiGka687</t>
-  </si>
-  <si>
-    <t>mciswee13</t>
-  </si>
-  <si>
-    <t>S$e5w%V9</t>
+    <t>GyXSr256</t>
+  </si>
+  <si>
+    <t>auuzkwk41</t>
+  </si>
+  <si>
+    <t>Z&amp;sR6$v2</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>zpFXWIVn</t>
-  </si>
-  <si>
-    <t>RVgJ</t>
+    <t>tSqTiMSy</t>
+  </si>
+  <si>
+    <t>zCeb</t>
   </si>
   <si>
     <t>Candidate</t>
-  </si>
-  <si>
-    <t>iRiaL673</t>
-  </si>
-  <si>
-    <t>zwqhjhs73</t>
-  </si>
-  <si>
-    <t>X#4meH2$</t>
-  </si>
-  <si>
-    <t>psabtdSX</t>
-  </si>
-  <si>
-    <t>TVAM</t>
   </si>
 </sst>
 </file>
@@ -442,10 +427,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H3"/>
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -481,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23110861</v>
+        <v>23110945</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -499,32 +484,6 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2">
-        <v>23110860</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,25 +41,301 @@
     <t>Role</t>
   </si>
   <si>
-    <t>GyXSr256</t>
-  </si>
-  <si>
-    <t>auuzkwk41</t>
-  </si>
-  <si>
-    <t>Z&amp;sR6$v2</t>
+    <t>CIO12032</t>
+  </si>
+  <si>
+    <t>candidatepfm12032</t>
+  </si>
+  <si>
+    <t>Elumina@154</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>tSqTiMSy</t>
-  </si>
-  <si>
-    <t>zCeb</t>
-  </si>
-  <si>
     <t>Candidate</t>
+  </si>
+  <si>
+    <t>PFTMM</t>
+  </si>
+  <si>
+    <t>CIO12031</t>
+  </si>
+  <si>
+    <t>candidatepfm12031</t>
+  </si>
+  <si>
+    <t>Elumina@153</t>
+  </si>
+  <si>
+    <t>CIO12030</t>
+  </si>
+  <si>
+    <t>candidatepfm12030</t>
+  </si>
+  <si>
+    <t>Elumina@152</t>
+  </si>
+  <si>
+    <t>CIO12029</t>
+  </si>
+  <si>
+    <t>candidatepfm12029</t>
+  </si>
+  <si>
+    <t>Elumina@151</t>
+  </si>
+  <si>
+    <t>CIO12028</t>
+  </si>
+  <si>
+    <t>candidatepfm12028</t>
+  </si>
+  <si>
+    <t>Elumina@150</t>
+  </si>
+  <si>
+    <t>CIO12027</t>
+  </si>
+  <si>
+    <t>candidatepfm12027</t>
+  </si>
+  <si>
+    <t>Elumina@149</t>
+  </si>
+  <si>
+    <t>CIO12026</t>
+  </si>
+  <si>
+    <t>candidatepfm12026</t>
+  </si>
+  <si>
+    <t>Elumina@148</t>
+  </si>
+  <si>
+    <t>CIO12025</t>
+  </si>
+  <si>
+    <t>candidatepfm12025</t>
+  </si>
+  <si>
+    <t>Elumina@147</t>
+  </si>
+  <si>
+    <t>CIO12024</t>
+  </si>
+  <si>
+    <t>candidatepfm12024</t>
+  </si>
+  <si>
+    <t>Elumina@146</t>
+  </si>
+  <si>
+    <t>CIO12023</t>
+  </si>
+  <si>
+    <t>candidatepfm12023</t>
+  </si>
+  <si>
+    <t>Elumina@145</t>
+  </si>
+  <si>
+    <t>CIO12022</t>
+  </si>
+  <si>
+    <t>candidatepfm12022</t>
+  </si>
+  <si>
+    <t>Elumina@144</t>
+  </si>
+  <si>
+    <t>CIO12021</t>
+  </si>
+  <si>
+    <t>candidatepfm12021</t>
+  </si>
+  <si>
+    <t>Elumina@143</t>
+  </si>
+  <si>
+    <t>CIO12020</t>
+  </si>
+  <si>
+    <t>candidatepfm12020</t>
+  </si>
+  <si>
+    <t>Elumina@142</t>
+  </si>
+  <si>
+    <t>CIO12019</t>
+  </si>
+  <si>
+    <t>candidatepfm12019</t>
+  </si>
+  <si>
+    <t>Elumina@141</t>
+  </si>
+  <si>
+    <t>CIO12018</t>
+  </si>
+  <si>
+    <t>candidatepfm12018</t>
+  </si>
+  <si>
+    <t>Elumina@140</t>
+  </si>
+  <si>
+    <t>CIO12017</t>
+  </si>
+  <si>
+    <t>candidatepfm12017</t>
+  </si>
+  <si>
+    <t>Elumina@139</t>
+  </si>
+  <si>
+    <t>CIO12016</t>
+  </si>
+  <si>
+    <t>candidatepfm12016</t>
+  </si>
+  <si>
+    <t>Elumina@138</t>
+  </si>
+  <si>
+    <t>CIO12015</t>
+  </si>
+  <si>
+    <t>candidatepfm12015</t>
+  </si>
+  <si>
+    <t>Elumina@137</t>
+  </si>
+  <si>
+    <t>CIO12014</t>
+  </si>
+  <si>
+    <t>candidatepfm12014</t>
+  </si>
+  <si>
+    <t>Elumina@136</t>
+  </si>
+  <si>
+    <t>CIO12013</t>
+  </si>
+  <si>
+    <t>candidatepfm12013</t>
+  </si>
+  <si>
+    <t>Elumina@135</t>
+  </si>
+  <si>
+    <t>CIO12012</t>
+  </si>
+  <si>
+    <t>candidatepfm12012</t>
+  </si>
+  <si>
+    <t>Elumina@134</t>
+  </si>
+  <si>
+    <t>CIO12011</t>
+  </si>
+  <si>
+    <t>candidatepfm12011</t>
+  </si>
+  <si>
+    <t>Elumina@133</t>
+  </si>
+  <si>
+    <t>CIO12010</t>
+  </si>
+  <si>
+    <t>candidatepfm12010</t>
+  </si>
+  <si>
+    <t>Elumina@132</t>
+  </si>
+  <si>
+    <t>CIO12009</t>
+  </si>
+  <si>
+    <t>candidatepfm12009</t>
+  </si>
+  <si>
+    <t>Elumina@131</t>
+  </si>
+  <si>
+    <t>CIO12008</t>
+  </si>
+  <si>
+    <t>candidatepfm12008</t>
+  </si>
+  <si>
+    <t>Elumina@130</t>
+  </si>
+  <si>
+    <t>CIO12007</t>
+  </si>
+  <si>
+    <t>candidatepfm12007</t>
+  </si>
+  <si>
+    <t>Elumina@129</t>
+  </si>
+  <si>
+    <t>CIO12006</t>
+  </si>
+  <si>
+    <t>candidatepfm12006</t>
+  </si>
+  <si>
+    <t>Elumina@128</t>
+  </si>
+  <si>
+    <t>CIO12005</t>
+  </si>
+  <si>
+    <t>candidatepfm12005</t>
+  </si>
+  <si>
+    <t>Elumina@127</t>
+  </si>
+  <si>
+    <t>CIO12004</t>
+  </si>
+  <si>
+    <t>candidatepfm12004</t>
+  </si>
+  <si>
+    <t>Elumina@126</t>
+  </si>
+  <si>
+    <t>CIO12003</t>
+  </si>
+  <si>
+    <t>candidatepfm12003</t>
+  </si>
+  <si>
+    <t>Elumina@125</t>
+  </si>
+  <si>
+    <t>CIO12002</t>
+  </si>
+  <si>
+    <t>candidatepfm12002</t>
+  </si>
+  <si>
+    <t>Elumina@124</t>
+  </si>
+  <si>
+    <t>CIO12001</t>
+  </si>
+  <si>
+    <t>candidatepfm12001</t>
+  </si>
+  <si>
+    <t>Elumina@123</t>
   </si>
 </sst>
 </file>
@@ -427,10 +703,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="A1" sqref="A1:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23110945</v>
+        <v>20123176</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -484,7 +760,813 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20123175</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20123174</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20123173</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20123172</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20123171</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20123170</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20123169</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20123168</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20123167</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20123166</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>20123165</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20123164</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20123163</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2">
+        <v>20123162</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2">
+        <v>20123161</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20123160</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2">
+        <v>20123159</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="2">
+        <v>20123158</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20123157</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="2">
+        <v>20123156</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="2">
+        <v>20123155</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="2">
+        <v>20123154</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="2">
+        <v>20123153</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="2">
+        <v>20123152</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="2">
+        <v>20123151</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="2">
+        <v>20123150</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="2">
+        <v>20123149</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="2">
+        <v>20123148</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="2">
+        <v>20123147</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="2">
+        <v>20123146</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2">
+        <v>20123145</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,25 +41,301 @@
     <t>Role</t>
   </si>
   <si>
-    <t>SZCUP961</t>
-  </si>
-  <si>
-    <t>zgnimwt47</t>
-  </si>
-  <si>
-    <t>Um8!%Ja2</t>
+    <t>CIO12032</t>
+  </si>
+  <si>
+    <t>candidatepfm12032</t>
+  </si>
+  <si>
+    <t>Elumina@154</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>SLMJhvmh</t>
-  </si>
-  <si>
-    <t>unUd</t>
-  </si>
-  <si>
     <t>Candidate</t>
+  </si>
+  <si>
+    <t>PFTMM</t>
+  </si>
+  <si>
+    <t>CIO12031</t>
+  </si>
+  <si>
+    <t>candidatepfm12031</t>
+  </si>
+  <si>
+    <t>Elumina@153</t>
+  </si>
+  <si>
+    <t>CIO12030</t>
+  </si>
+  <si>
+    <t>candidatepfm12030</t>
+  </si>
+  <si>
+    <t>Elumina@152</t>
+  </si>
+  <si>
+    <t>CIO12029</t>
+  </si>
+  <si>
+    <t>candidatepfm12029</t>
+  </si>
+  <si>
+    <t>Elumina@151</t>
+  </si>
+  <si>
+    <t>CIO12028</t>
+  </si>
+  <si>
+    <t>candidatepfm12028</t>
+  </si>
+  <si>
+    <t>Elumina@150</t>
+  </si>
+  <si>
+    <t>CIO12027</t>
+  </si>
+  <si>
+    <t>candidatepfm12027</t>
+  </si>
+  <si>
+    <t>Elumina@149</t>
+  </si>
+  <si>
+    <t>CIO12026</t>
+  </si>
+  <si>
+    <t>candidatepfm12026</t>
+  </si>
+  <si>
+    <t>Elumina@148</t>
+  </si>
+  <si>
+    <t>CIO12025</t>
+  </si>
+  <si>
+    <t>candidatepfm12025</t>
+  </si>
+  <si>
+    <t>Elumina@147</t>
+  </si>
+  <si>
+    <t>CIO12024</t>
+  </si>
+  <si>
+    <t>candidatepfm12024</t>
+  </si>
+  <si>
+    <t>Elumina@146</t>
+  </si>
+  <si>
+    <t>CIO12023</t>
+  </si>
+  <si>
+    <t>candidatepfm12023</t>
+  </si>
+  <si>
+    <t>Elumina@145</t>
+  </si>
+  <si>
+    <t>CIO12022</t>
+  </si>
+  <si>
+    <t>candidatepfm12022</t>
+  </si>
+  <si>
+    <t>Elumina@144</t>
+  </si>
+  <si>
+    <t>CIO12021</t>
+  </si>
+  <si>
+    <t>candidatepfm12021</t>
+  </si>
+  <si>
+    <t>Elumina@143</t>
+  </si>
+  <si>
+    <t>CIO12020</t>
+  </si>
+  <si>
+    <t>candidatepfm12020</t>
+  </si>
+  <si>
+    <t>Elumina@142</t>
+  </si>
+  <si>
+    <t>CIO12019</t>
+  </si>
+  <si>
+    <t>candidatepfm12019</t>
+  </si>
+  <si>
+    <t>Elumina@141</t>
+  </si>
+  <si>
+    <t>CIO12018</t>
+  </si>
+  <si>
+    <t>candidatepfm12018</t>
+  </si>
+  <si>
+    <t>Elumina@140</t>
+  </si>
+  <si>
+    <t>CIO12017</t>
+  </si>
+  <si>
+    <t>candidatepfm12017</t>
+  </si>
+  <si>
+    <t>Elumina@139</t>
+  </si>
+  <si>
+    <t>CIO12016</t>
+  </si>
+  <si>
+    <t>candidatepfm12016</t>
+  </si>
+  <si>
+    <t>Elumina@138</t>
+  </si>
+  <si>
+    <t>CIO12015</t>
+  </si>
+  <si>
+    <t>candidatepfm12015</t>
+  </si>
+  <si>
+    <t>Elumina@137</t>
+  </si>
+  <si>
+    <t>CIO12014</t>
+  </si>
+  <si>
+    <t>candidatepfm12014</t>
+  </si>
+  <si>
+    <t>Elumina@136</t>
+  </si>
+  <si>
+    <t>CIO12013</t>
+  </si>
+  <si>
+    <t>candidatepfm12013</t>
+  </si>
+  <si>
+    <t>Elumina@135</t>
+  </si>
+  <si>
+    <t>CIO12012</t>
+  </si>
+  <si>
+    <t>candidatepfm12012</t>
+  </si>
+  <si>
+    <t>Elumina@134</t>
+  </si>
+  <si>
+    <t>CIO12011</t>
+  </si>
+  <si>
+    <t>candidatepfm12011</t>
+  </si>
+  <si>
+    <t>Elumina@133</t>
+  </si>
+  <si>
+    <t>CIO12010</t>
+  </si>
+  <si>
+    <t>candidatepfm12010</t>
+  </si>
+  <si>
+    <t>Elumina@132</t>
+  </si>
+  <si>
+    <t>CIO12009</t>
+  </si>
+  <si>
+    <t>candidatepfm12009</t>
+  </si>
+  <si>
+    <t>Elumina@131</t>
+  </si>
+  <si>
+    <t>CIO12008</t>
+  </si>
+  <si>
+    <t>candidatepfm12008</t>
+  </si>
+  <si>
+    <t>Elumina@130</t>
+  </si>
+  <si>
+    <t>CIO12007</t>
+  </si>
+  <si>
+    <t>candidatepfm12007</t>
+  </si>
+  <si>
+    <t>Elumina@129</t>
+  </si>
+  <si>
+    <t>CIO12006</t>
+  </si>
+  <si>
+    <t>candidatepfm12006</t>
+  </si>
+  <si>
+    <t>Elumina@128</t>
+  </si>
+  <si>
+    <t>CIO12005</t>
+  </si>
+  <si>
+    <t>candidatepfm12005</t>
+  </si>
+  <si>
+    <t>Elumina@127</t>
+  </si>
+  <si>
+    <t>CIO12004</t>
+  </si>
+  <si>
+    <t>candidatepfm12004</t>
+  </si>
+  <si>
+    <t>Elumina@126</t>
+  </si>
+  <si>
+    <t>CIO12003</t>
+  </si>
+  <si>
+    <t>candidatepfm12003</t>
+  </si>
+  <si>
+    <t>Elumina@125</t>
+  </si>
+  <si>
+    <t>CIO12002</t>
+  </si>
+  <si>
+    <t>candidatepfm12002</t>
+  </si>
+  <si>
+    <t>Elumina@124</t>
+  </si>
+  <si>
+    <t>CIO12001</t>
+  </si>
+  <si>
+    <t>candidatepfm12001</t>
+  </si>
+  <si>
+    <t>Elumina@123</t>
   </si>
 </sst>
 </file>
@@ -427,10 +703,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="A1" sqref="A1:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23111062</v>
+        <v>20123176</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -484,7 +760,813 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20123175</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20123174</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20123173</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20123172</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20123171</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20123170</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20123169</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20123168</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20123167</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20123166</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>20123165</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20123164</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20123163</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2">
+        <v>20123162</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2">
+        <v>20123161</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20123160</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2">
+        <v>20123159</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="2">
+        <v>20123158</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20123157</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="2">
+        <v>20123156</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="2">
+        <v>20123155</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="2">
+        <v>20123154</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="2">
+        <v>20123153</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="2">
+        <v>20123152</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="2">
+        <v>20123151</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="2">
+        <v>20123150</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="2">
+        <v>20123149</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="2">
+        <v>20123148</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="2">
+        <v>20123147</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="2">
+        <v>20123146</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2">
+        <v>20123145</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -41,22 +41,22 @@
     <t>Role</t>
   </si>
   <si>
-    <t>dcqRj764</t>
-  </si>
-  <si>
-    <t>zmdlpoi47</t>
-  </si>
-  <si>
-    <t>eW4m!&amp;2J</t>
+    <t>aGKBW286</t>
+  </si>
+  <si>
+    <t>nhfldgk95</t>
+  </si>
+  <si>
+    <t>wr3V9!$M</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>ICififSW</t>
-  </si>
-  <si>
-    <t>uuAH</t>
+    <t>ASiXJWbN</t>
+  </si>
+  <si>
+    <t>WKRh</t>
   </si>
   <si>
     <t>Candidate</t>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23111413</v>
+        <v>23111603</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>

--- a/download/bulk_user_details.xlsx
+++ b/download/bulk_user_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,25 +41,55 @@
     <t>Role</t>
   </si>
   <si>
-    <t>aGKBW286</t>
-  </si>
-  <si>
-    <t>nhfldgk95</t>
-  </si>
-  <si>
-    <t>wr3V9!$M</t>
+    <t>omLKn912</t>
+  </si>
+  <si>
+    <t>ngayxqc48</t>
+  </si>
+  <si>
+    <t>Rf&amp;N5n!8</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>ASiXJWbN</t>
-  </si>
-  <si>
-    <t>WKRh</t>
+    <t>UjDHiFTq</t>
+  </si>
+  <si>
+    <t>ezdS</t>
   </si>
   <si>
     <t>Candidate</t>
+  </si>
+  <si>
+    <t>sEdlG343</t>
+  </si>
+  <si>
+    <t>uymwjkw37</t>
+  </si>
+  <si>
+    <t>hm65%E#P</t>
+  </si>
+  <si>
+    <t>xZVPOvsr</t>
+  </si>
+  <si>
+    <t>WvJv</t>
+  </si>
+  <si>
+    <t>iUkOr451</t>
+  </si>
+  <si>
+    <t>sghlmrc51</t>
+  </si>
+  <si>
+    <t>xF&amp;N3$2k</t>
+  </si>
+  <si>
+    <t>ffHADbov</t>
+  </si>
+  <si>
+    <t>fpzh</t>
   </si>
 </sst>
 </file>
@@ -427,10 +457,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H2"/>
+      <selection activeCell="A1" sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23111603</v>
+        <v>2012454353</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -484,6 +514,58 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2012454354</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2012454355</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
